--- a/Heuristic2/gtelarge_cosine/final_rank_gtelarge_cos.xlsx
+++ b/Heuristic2/gtelarge_cosine/final_rank_gtelarge_cos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Organization</t>
   </si>
@@ -55,454 +55,457 @@
     <t>proxy_success</t>
   </si>
   <si>
+    <t>Reach Capital</t>
+  </si>
+  <si>
+    <t>Google for Education</t>
+  </si>
+  <si>
+    <t>National Science Foundation (NSF)</t>
+  </si>
+  <si>
+    <t>Bill &amp; Melinda Gates Foundation</t>
+  </si>
+  <si>
+    <t>Chan Zuckerberg Initiative (CZI)</t>
+  </si>
+  <si>
+    <t>Owl Ventures</t>
+  </si>
+  <si>
     <t>U.S. Dept. of Education (EIR Program)</t>
   </si>
   <si>
-    <t>Reach Capital</t>
-  </si>
-  <si>
-    <t>Chan Zuckerberg Initiative (CZI)</t>
-  </si>
-  <si>
-    <t>Owl Ventures</t>
-  </si>
-  <si>
-    <t>Bill &amp; Melinda Gates Foundation</t>
+    <t>TGR Foundation (Tiger Woods)</t>
   </si>
   <si>
     <t>500 Global Flagship VC (non-accelerator checks)</t>
   </si>
   <si>
-    <t>Google for Education</t>
-  </si>
-  <si>
-    <t>National Science Foundation (NSF)</t>
+    <t>Penn State University - Outreach &amp; Engagement</t>
   </si>
   <si>
     <t>IES SBIR (ED/IES)</t>
   </si>
   <si>
+    <t>Berkeley SkyDeck Fund (UC Berkeley)</t>
+  </si>
+  <si>
     <t>NSF SBIR (“America’s Seed Fund”)</t>
   </si>
   <si>
+    <t>500 Global (seed/accelerator)</t>
+  </si>
+  <si>
     <t>Y Combinator</t>
   </si>
   <si>
+    <t>Washington Commanders Foundation</t>
+  </si>
+  <si>
+    <t>MIT Solve (Global Learning &amp; education tracks)</t>
+  </si>
+  <si>
+    <t>Indiegogo</t>
+  </si>
+  <si>
+    <t>Kickstarter</t>
+  </si>
+  <si>
+    <t>New York Rangers - Garden of Dreams Foundation</t>
+  </si>
+  <si>
+    <t>Golden State Warriors Community Foundation</t>
+  </si>
+  <si>
+    <t>New York Knicks Garden of Dreams Foundation</t>
+  </si>
+  <si>
+    <t>University of Wisconsin-Madison - Community Relations</t>
+  </si>
+  <si>
+    <t>New York Islanders Children's Foundation</t>
+  </si>
+  <si>
+    <t>Pittsburgh Steelers Charities</t>
+  </si>
+  <si>
+    <t>Baylor University - Office of External Affairs</t>
+  </si>
+  <si>
+    <t>Buffalo Bills Foundation</t>
+  </si>
+  <si>
+    <t>TCU (Texas Christian University) - Community Engagement</t>
+  </si>
+  <si>
+    <t>University of Florida Foundation</t>
+  </si>
+  <si>
+    <t>The Ohio State University - Office of Outreach</t>
+  </si>
+  <si>
+    <t>University of Southern California (USC) Good Neighbors</t>
+  </si>
+  <si>
+    <t>Philadelphia Eagles Foundation</t>
+  </si>
+  <si>
+    <t>Duke University - Duke-Durham Neighborhood Partnership</t>
+  </si>
+  <si>
+    <t>LA Kings Care Foundation</t>
+  </si>
+  <si>
+    <t>Florida State University Research Foundation</t>
+  </si>
+  <si>
     <t>Chicago Bulls Charities</t>
   </si>
   <si>
-    <t>Berkeley SkyDeck Fund (UC Berkeley)</t>
-  </si>
-  <si>
-    <t>New York Rangers - Garden of Dreams Foundation</t>
-  </si>
-  <si>
-    <t>500 Global (seed/accelerator)</t>
-  </si>
-  <si>
     <t>NBA Foundation</t>
   </si>
   <si>
-    <t>University of Wisconsin-Madison - Community Relations</t>
+    <t>LA Galaxy Foundation</t>
+  </si>
+  <si>
+    <t>DonorsChoose (technology classroom projects)</t>
+  </si>
+  <si>
+    <t>Portland Timbers Community Fund</t>
+  </si>
+  <si>
+    <t>Tennessee Titans Foundation</t>
+  </si>
+  <si>
+    <t>Vegas Golden Knights Foundation</t>
+  </si>
+  <si>
+    <t>Dallas Stars Foundation</t>
+  </si>
+  <si>
+    <t>New York Jets Foundation</t>
+  </si>
+  <si>
+    <t>Houston Rockets - Clutch City Foundation</t>
+  </si>
+  <si>
+    <t>Microsoft Philanthropies</t>
+  </si>
+  <si>
+    <t>Phoenix Suns Charities</t>
+  </si>
+  <si>
+    <t>New York Giants Foundation</t>
+  </si>
+  <si>
+    <t>LA Clippers Foundation</t>
+  </si>
+  <si>
+    <t>Indianapolis Colts Foundation</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers Foundation</t>
+  </si>
+  <si>
+    <t>Sporting Kansas City - The Victory Project</t>
+  </si>
+  <si>
+    <t>Arizona Cardinals Charities</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks Foundation</t>
+  </si>
+  <si>
+    <t>Ottawa Senators Foundation</t>
+  </si>
+  <si>
+    <t>Nashville Predators Foundation</t>
+  </si>
+  <si>
+    <t>New England Patriots Foundation</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets Foundation</t>
   </si>
   <si>
     <t>New York City FC - City in the Community Foundation</t>
   </si>
   <si>
-    <t>Penn State University - Outreach &amp; Engagement</t>
+    <t>New Jersey Devils Youth Foundation</t>
+  </si>
+  <si>
+    <t>Buffalo Sabres Foundation</t>
+  </si>
+  <si>
+    <t>Toronto FC - MLSE Foundation</t>
+  </si>
+  <si>
+    <t>Los Angeles FC (LAFC) Foundation</t>
+  </si>
+  <si>
+    <t>Houston Dynamo Charities</t>
+  </si>
+  <si>
+    <t>D.C. United Foundation</t>
+  </si>
+  <si>
+    <t>Chicago Bears Charities</t>
+  </si>
+  <si>
+    <t>Nike Community Impact Fund</t>
+  </si>
+  <si>
+    <t>Laureus Sport for Good USA</t>
+  </si>
+  <si>
+    <t>Houston Texans Foundation</t>
+  </si>
+  <si>
+    <t>Seattle Seahawks - Spirit of 12</t>
+  </si>
+  <si>
+    <t>New Orleans Saints - Gulf Coast Renewal Fund</t>
+  </si>
+  <si>
+    <t>National Hockey League (NHL) Foundation U.S.</t>
+  </si>
+  <si>
+    <t>Boston Bruins Foundation</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs - Spurs Give</t>
+  </si>
+  <si>
+    <t>Green Bay Packers Foundation</t>
+  </si>
+  <si>
+    <t>Toronto Raptors - MLSE Foundation</t>
+  </si>
+  <si>
+    <t>San Francisco 49ers Foundation</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams Foundation</t>
+  </si>
+  <si>
+    <t>Toronto Maple Leafs - MLSE Foundation</t>
+  </si>
+  <si>
+    <t>Boston Celtics Shamrock Foundation</t>
+  </si>
+  <si>
+    <t>VELA Education Fund</t>
+  </si>
+  <si>
+    <t>New York Yankees Foundation</t>
+  </si>
+  <si>
+    <t>Montreal Canadiens Children's Foundation</t>
+  </si>
+  <si>
+    <t>Real Salt Lake Foundation</t>
+  </si>
+  <si>
+    <t>Detroit Lions Charities</t>
+  </si>
+  <si>
+    <t>Sacramento Republic FC</t>
+  </si>
+  <si>
+    <t>Detroit City FC</t>
+  </si>
+  <si>
+    <t>JJ Watt Foundation</t>
+  </si>
+  <si>
+    <t>Los Angeles Chargers Impact Fund</t>
+  </si>
+  <si>
+    <t>FC Dallas Foundation</t>
+  </si>
+  <si>
+    <t>Baltimore Ravens Foundation</t>
+  </si>
+  <si>
+    <t>Washington Wizards - Monumental Sports &amp; Entertainment Foundation</t>
+  </si>
+  <si>
+    <t>Pittsburgh Penguins Foundation</t>
+  </si>
+  <si>
+    <t>San Jose Sharks Foundation</t>
   </si>
   <si>
     <t>Austin FC - 4ATX Foundation</t>
   </si>
   <si>
-    <t>TGR Foundation (Tiger Woods)</t>
-  </si>
-  <si>
-    <t>Toronto FC - MLSE Foundation</t>
-  </si>
-  <si>
-    <t>New York Knicks Garden of Dreams Foundation</t>
+    <t>Oakland Roots SC</t>
+  </si>
+  <si>
+    <t>Chicago Blackhawks Foundation</t>
+  </si>
+  <si>
+    <t>NFL Foundation</t>
+  </si>
+  <si>
+    <t>Miami Dolphins Foundation</t>
+  </si>
+  <si>
+    <t>Minnesota Vikings Foundation</t>
+  </si>
+  <si>
+    <t>MLB Players Trust</t>
+  </si>
+  <si>
+    <t>Jacksonville Jaguars Foundation</t>
+  </si>
+  <si>
+    <t>Utah Jazz Foundation</t>
+  </si>
+  <si>
+    <t>Indiana Pacers Foundation</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks Foundation</t>
   </si>
   <si>
     <t>FC Cincinnati Foundation</t>
   </si>
   <si>
-    <t>Golden State Warriors Community Foundation</t>
-  </si>
-  <si>
-    <t>Washington Commanders Foundation</t>
-  </si>
-  <si>
-    <t>LA Kings Care Foundation</t>
-  </si>
-  <si>
-    <t>Houston Texans Foundation</t>
-  </si>
-  <si>
-    <t>San Francisco 49ers Foundation</t>
+    <t>Charlotte Hornets Foundation</t>
+  </si>
+  <si>
+    <t>Eat. Learn. Play. Foundation (Stephen &amp; Ayesha Curry)</t>
   </si>
   <si>
     <t>Kansas City Chiefs Foundation</t>
   </si>
   <si>
-    <t>New England Patriots Foundation</t>
-  </si>
-  <si>
-    <t>FC Dallas Foundation</t>
-  </si>
-  <si>
-    <t>Eat. Learn. Play. Foundation (Stephen &amp; Ayesha Curry)</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets Foundation</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets Foundation</t>
-  </si>
-  <si>
-    <t>University of Southern California (USC) Good Neighbors</t>
+    <t>Dallas Cowboys Foundation</t>
+  </si>
+  <si>
+    <t>Atlanta Falcons Youth Foundation</t>
+  </si>
+  <si>
+    <t>Colorado Rapids Community Relations</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers Community Foundation</t>
+  </si>
+  <si>
+    <t>Orlando Magic Youth Foundation (OMYF)</t>
+  </si>
+  <si>
+    <t>Nashville SC Community Fund</t>
+  </si>
+  <si>
+    <t>Edmonton Oilers Community Foundation (EOCF)</t>
+  </si>
+  <si>
+    <t>Calgary Flames Foundation</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers Youth Foundation</t>
+  </si>
+  <si>
+    <t>Vancouver Canucks for Kids Fund</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers Foundation</t>
+  </si>
+  <si>
+    <t>Miami HEAT Charitable Fund</t>
+  </si>
+  <si>
+    <t>Carolina Hurricanes Foundation</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves FastBreak Foundation</t>
+  </si>
+  <si>
+    <t>Chicago Cubs Charities</t>
+  </si>
+  <si>
+    <t>Cleveland Browns Foundation</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies Foundation</t>
+  </si>
+  <si>
+    <t>Cincinnati Bengals - Community Relations</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks Foundation</t>
+  </si>
+  <si>
+    <t>Inter Miami CF Foundation</t>
+  </si>
+  <si>
+    <t>Detroit Pistons Foundation</t>
+  </si>
+  <si>
+    <t>Chicago Fire FC Foundation</t>
+  </si>
+  <si>
+    <t>Denver Nuggets Community Relations</t>
+  </si>
+  <si>
+    <t>Anaheim Ducks Foundation</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Chicago Blackhawks Foundation</t>
-  </si>
-  <si>
-    <t>Ottawa Senators Foundation</t>
-  </si>
-  <si>
-    <t>San Jose Sharks Foundation</t>
-  </si>
-  <si>
-    <t>University of Florida Foundation</t>
-  </si>
-  <si>
-    <t>Houston Rockets - Clutch City Foundation</t>
-  </si>
-  <si>
-    <t>Chicago Bears Charities</t>
-  </si>
-  <si>
-    <t>LA Galaxy Foundation</t>
-  </si>
-  <si>
-    <t>Chicago Fire FC Foundation</t>
-  </si>
-  <si>
-    <t>Philadelphia Eagles Foundation</t>
-  </si>
-  <si>
-    <t>Washington Wizards - Monumental Sports &amp; Entertainment Foundation</t>
-  </si>
-  <si>
-    <t>LA Clippers Foundation</t>
-  </si>
-  <si>
-    <t>MIT Solve (Global Learning &amp; education tracks)</t>
-  </si>
-  <si>
-    <t>New York Islanders Children's Foundation</t>
-  </si>
-  <si>
-    <t>Utah Jazz Foundation</t>
-  </si>
-  <si>
-    <t>Florida State University Research Foundation</t>
-  </si>
-  <si>
-    <t>Pittsburgh Steelers Charities</t>
-  </si>
-  <si>
-    <t>Los Angeles FC (LAFC) Foundation</t>
-  </si>
-  <si>
-    <t>Buffalo Sabres Foundation</t>
-  </si>
-  <si>
-    <t>Buffalo Bills Foundation</t>
-  </si>
-  <si>
-    <t>D.C. United Foundation</t>
-  </si>
-  <si>
-    <t>Baylor University - Office of External Affairs</t>
-  </si>
-  <si>
-    <t>Microsoft Philanthropies</t>
-  </si>
-  <si>
-    <t>New Jersey Devils Youth Foundation</t>
-  </si>
-  <si>
-    <t>Houston Dynamo Charities</t>
-  </si>
-  <si>
-    <t>Colorado Rapids Community Relations</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs - Spurs Give</t>
-  </si>
-  <si>
-    <t>TCU (Texas Christian University) - Community Engagement</t>
-  </si>
-  <si>
-    <t>Boston Celtics Shamrock Foundation</t>
+    <t>St. Louis Blues - Blues for Kids Foundation</t>
+  </si>
+  <si>
+    <t>Indy Eleven Foundation</t>
+  </si>
+  <si>
+    <t>Carolina Panthers Charities</t>
   </si>
   <si>
     <t>Columbus Blue Jackets Foundation</t>
   </si>
   <si>
-    <t>Portland Timbers Community Fund</t>
-  </si>
-  <si>
-    <t>Indiana Pacers Foundation</t>
-  </si>
-  <si>
-    <t>Indiegogo</t>
-  </si>
-  <si>
-    <t>Phoenix Suns Charities</t>
-  </si>
-  <si>
-    <t>Kickstarter</t>
-  </si>
-  <si>
-    <t>Laureus Sport for Good USA</t>
-  </si>
-  <si>
-    <t>Tennessee Titans Foundation</t>
-  </si>
-  <si>
-    <t>National Hockey League (NHL) Foundation U.S.</t>
-  </si>
-  <si>
-    <t>Detroit Pistons Foundation</t>
-  </si>
-  <si>
-    <t>Dallas Stars Foundation</t>
-  </si>
-  <si>
-    <t>New York Jets Foundation</t>
-  </si>
-  <si>
-    <t>Sporting Kansas City - The Victory Project</t>
-  </si>
-  <si>
-    <t>New York Giants Foundation</t>
-  </si>
-  <si>
-    <t>Inter Miami CF Foundation</t>
-  </si>
-  <si>
-    <t>Vegas Golden Knights Foundation</t>
-  </si>
-  <si>
-    <t>Orlando Magic Youth Foundation (OMYF)</t>
-  </si>
-  <si>
-    <t>Toronto Raptors - MLSE Foundation</t>
-  </si>
-  <si>
-    <t>Indianapolis Colts Foundation</t>
-  </si>
-  <si>
-    <t>Chicago Cubs Charities</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves FastBreak Foundation</t>
-  </si>
-  <si>
-    <t>New York Yankees Foundation</t>
-  </si>
-  <si>
-    <t>Boston Bruins Foundation</t>
-  </si>
-  <si>
-    <t>Arizona Cardinals Charities</t>
-  </si>
-  <si>
-    <t>Calgary Flames Foundation</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks Foundation</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers Foundation</t>
-  </si>
-  <si>
-    <t>Toronto Maple Leafs - MLSE Foundation</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers - Sixers Youth Foundation</t>
   </si>
   <si>
-    <t>Nashville Predators Foundation</t>
-  </si>
-  <si>
-    <t>Detroit City FC</t>
-  </si>
-  <si>
-    <t>Minnesota Vikings Foundation</t>
-  </si>
-  <si>
-    <t>The Ohio State University - Office of Outreach</t>
-  </si>
-  <si>
-    <t>Montreal Canadiens Children's Foundation</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers Community Foundation</t>
-  </si>
-  <si>
-    <t>Duke University - Duke-Durham Neighborhood Partnership</t>
-  </si>
-  <si>
-    <t>Nike Community Impact Fund</t>
+    <t>Minnesota Wild Foundation</t>
+  </si>
+  <si>
+    <t>Boston Red Sox Foundation</t>
   </si>
   <si>
     <t>Seattle Kraken - One Roof Foundation</t>
   </si>
   <si>
-    <t>Memphis Grizzlies Foundation</t>
+    <t>Las Vegas Raiders Foundation</t>
   </si>
   <si>
     <t>Tampa Bay Lightning Community Heroes</t>
   </si>
   <si>
-    <t>Seattle Seahawks - Spirit of 12</t>
-  </si>
-  <si>
-    <t>New Orleans Saints - Gulf Coast Renewal Fund</t>
-  </si>
-  <si>
-    <t>Los Angeles Rams Foundation</t>
-  </si>
-  <si>
-    <t>St. Louis Blues - Blues for Kids Foundation</t>
-  </si>
-  <si>
-    <t>Detroit Lions Charities</t>
-  </si>
-  <si>
-    <t>Vancouver Canucks for Kids Fund</t>
-  </si>
-  <si>
-    <t>Los Angeles Chargers Impact Fund</t>
-  </si>
-  <si>
-    <t>Baltimore Ravens Foundation</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers Youth Foundation</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks Foundation</t>
-  </si>
-  <si>
-    <t>Oakland Roots SC</t>
-  </si>
-  <si>
-    <t>Jacksonville Jaguars Foundation</t>
+    <t>Detroit Red Wings Foundation</t>
   </si>
   <si>
     <t>Colorado Avalanche Community Fund</t>
   </si>
   <si>
-    <t>Dallas Cowboys Foundation</t>
-  </si>
-  <si>
-    <t>Atlanta Falcons Youth Foundation</t>
-  </si>
-  <si>
-    <t>JJ Watt Foundation</t>
-  </si>
-  <si>
-    <t>Edmonton Oilers Community Foundation (EOCF)</t>
-  </si>
-  <si>
     <t>Tampa Bay Rowdies</t>
   </si>
   <si>
-    <t>Los Angeles Dodgers Foundation</t>
-  </si>
-  <si>
-    <t>Carolina Hurricanes Foundation</t>
-  </si>
-  <si>
-    <t>Cleveland Browns Foundation</t>
-  </si>
-  <si>
-    <t>Cincinnati Bengals - Community Relations</t>
-  </si>
-  <si>
-    <t>Pittsburgh Penguins Foundation</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks Foundation</t>
-  </si>
-  <si>
-    <t>Real Salt Lake Foundation</t>
-  </si>
-  <si>
-    <t>VELA Education Fund</t>
-  </si>
-  <si>
-    <t>Carolina Panthers Charities</t>
-  </si>
-  <si>
-    <t>Green Bay Packers Foundation</t>
-  </si>
-  <si>
-    <t>Minnesota Wild Foundation</t>
-  </si>
-  <si>
-    <t>Las Vegas Raiders Foundation</t>
-  </si>
-  <si>
-    <t>Denver Nuggets Community Relations</t>
-  </si>
-  <si>
-    <t>Sacramento Republic FC</t>
-  </si>
-  <si>
-    <t>Anaheim Ducks Foundation</t>
-  </si>
-  <si>
-    <t>Miami Dolphins Foundation</t>
-  </si>
-  <si>
-    <t>Nashville SC Community Fund</t>
+    <t>Seattle Sounders FC RAVE Foundation</t>
+  </si>
+  <si>
+    <t>Denver Broncos Foundation</t>
   </si>
   <si>
     <t>Florida Panthers Foundation</t>
   </si>
   <si>
-    <t>Miami HEAT Charitable Fund</t>
-  </si>
-  <si>
-    <t>MLB Players Trust</t>
-  </si>
-  <si>
-    <t>NFL Foundation</t>
-  </si>
-  <si>
-    <t>Indy Eleven Foundation</t>
-  </si>
-  <si>
-    <t>Denver Broncos Foundation</t>
-  </si>
-  <si>
-    <t>Seattle Sounders FC RAVE Foundation</t>
-  </si>
-  <si>
-    <t>Detroit Red Wings Foundation</t>
-  </si>
-  <si>
-    <t>DonorsChoose (technology classroom projects)</t>
-  </si>
-  <si>
-    <t>Boston Red Sox Foundation</t>
+    <t>Tampa Bay Buccaneers Foundation</t>
   </si>
 </sst>
 </file>
@@ -860,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>2005654.528360114</v>
+        <v>5.865720418368515</v>
       </c>
       <c r="C2">
-        <v>0.3342757547266856</v>
+        <v>0.380029724758512</v>
       </c>
       <c r="D2">
-        <v>0.4775367924666938</v>
+        <v>0.5428996067978744</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -930,22 +933,22 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.6005175709724426</v>
+        <v>0.69889235496521</v>
       </c>
       <c r="I2">
-        <v>0.7952086925506592</v>
+        <v>0.7768000364303589</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="L2">
         <v>10000000</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -953,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>1919150.110030486</v>
+        <v>5.860581415300971</v>
       </c>
       <c r="C3">
-        <v>0.380029724758512</v>
+        <v>0.4174603231701141</v>
       </c>
       <c r="D3">
-        <v>0.5428996067978744</v>
+        <v>0.5963718902430202</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -971,22 +974,22 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.69889235496521</v>
+        <v>0.7024194002151489</v>
       </c>
       <c r="I3">
-        <v>0.7768000364303589</v>
+        <v>0.8490253686904907</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="L3">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -994,16 +997,16 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1887358.908601101</v>
+        <v>5.621224090499131</v>
       </c>
       <c r="C4">
-        <v>0.3581326202279129</v>
+        <v>0.4068777378901217</v>
       </c>
       <c r="D4">
-        <v>0.5116180288970185</v>
+        <v>0.5812539112716024</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1012,22 +1015,22 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.6682150363922119</v>
+        <v>0.7100863456726074</v>
       </c>
       <c r="I4">
-        <v>0.7656487822532654</v>
+        <v>0.8185679316520691</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>40000</v>
+        <v>500000</v>
       </c>
       <c r="L4">
-        <v>10500000</v>
+        <v>1500000</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1035,16 +1038,16 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1882475.413463204</v>
+        <v>5.570406271167919</v>
       </c>
       <c r="C5">
-        <v>0.3422682569933098</v>
+        <v>0.3646943787818099</v>
       </c>
       <c r="D5">
-        <v>0.4889546528475854</v>
+        <v>0.5209919696882999</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1053,19 +1056,19 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.6746864914894104</v>
+        <v>0.628639280796051</v>
       </c>
       <c r="I5">
-        <v>0.7247138619422913</v>
+        <v>0.8287613987922668</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1000000</v>
+        <v>435</v>
       </c>
       <c r="L5">
-        <v>10000000</v>
+        <v>8600000</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1076,16 +1079,16 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>1568265.149789168</v>
+        <v>5.543012352506539</v>
       </c>
       <c r="C6">
-        <v>0.3646943787818099</v>
+        <v>0.3581326202279129</v>
       </c>
       <c r="D6">
-        <v>0.5209919696882999</v>
+        <v>0.5116180288970185</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1094,19 +1097,19 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.628639280796051</v>
+        <v>0.6682150363922119</v>
       </c>
       <c r="I6">
-        <v>0.8287613987922668</v>
+        <v>0.7656487822532654</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>435</v>
+        <v>40000</v>
       </c>
       <c r="L6">
-        <v>8600000</v>
+        <v>10500000</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1117,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>786260.1558569245</v>
+        <v>5.312091938520803</v>
       </c>
       <c r="C7">
-        <v>0.2859127839479725</v>
+        <v>0.3422682569933098</v>
       </c>
       <c r="D7">
-        <v>0.4084468342113894</v>
+        <v>0.4889546528475854</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -1135,19 +1138,19 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.6033399105072021</v>
+        <v>0.6746864914894104</v>
       </c>
       <c r="I7">
-        <v>0.6769763231277466</v>
+        <v>0.7247138619422913</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="L7">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1158,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>521825.4039626427</v>
+        <v>5.217132023275516</v>
       </c>
       <c r="C8">
-        <v>0.4174603231701141</v>
+        <v>0.3342757547266856</v>
       </c>
       <c r="D8">
-        <v>0.5963718902430202</v>
+        <v>0.4775367924666938</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -1176,19 +1179,19 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.7024194002151489</v>
+        <v>0.6005175709724426</v>
       </c>
       <c r="I8">
-        <v>0.8490253686904907</v>
+        <v>0.7952086925506592</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="L8">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1199,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>406877.7378901216</v>
+        <v>4.337361895325993</v>
       </c>
       <c r="C9">
-        <v>0.4068777378901217</v>
+        <v>0.3990731911497569</v>
       </c>
       <c r="D9">
-        <v>0.5812539112716024</v>
+        <v>0.570104558785367</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1217,22 +1220,22 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.7100863456726074</v>
+        <v>0.6901546716690063</v>
       </c>
       <c r="I9">
-        <v>0.8185679316520691</v>
+        <v>0.8260533213615417</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>500000</v>
+        <v>5000</v>
       </c>
       <c r="L9">
-        <v>1500000</v>
+        <v>100000</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1240,16 +1243,16 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>171680.527915218</v>
+        <v>4.23926082216074</v>
       </c>
       <c r="C10">
-        <v>0.2746888446643488</v>
+        <v>0.2859127839479725</v>
       </c>
       <c r="D10">
-        <v>0.3924126352347841</v>
+        <v>0.4084468342113894</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1258,22 +1261,22 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.5791412591934204</v>
+        <v>0.6033399105072021</v>
       </c>
       <c r="I10">
-        <v>0.6775767207145691</v>
+        <v>0.6769763231277466</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="L10">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1281,13 +1284,13 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>166771.3887942297</v>
+        <v>4.146483075200615</v>
       </c>
       <c r="C11">
-        <v>0.2595663638820696</v>
+        <v>0.3601586309447228</v>
       </c>
       <c r="D11">
-        <v>0.3708090912600994</v>
+        <v>0.5145123299210326</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -1299,22 +1302,22 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.5264302492141724</v>
+        <v>0.6274760961532593</v>
       </c>
       <c r="I11">
-        <v>0.7043840885162354</v>
+        <v>0.8199712038040161</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>285000</v>
+        <v>50000</v>
       </c>
       <c r="L11">
-        <v>1000000</v>
+        <v>150000</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1322,13 +1325,13 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>127499.1088408946</v>
+        <v>3.665862319211558</v>
       </c>
       <c r="C12">
-        <v>0.2549982176817892</v>
+        <v>0.2746888446643488</v>
       </c>
       <c r="D12">
-        <v>0.3642831681168417</v>
+        <v>0.3924126352347841</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1340,19 +1343,19 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.539898157119751</v>
+        <v>0.5791412591934204</v>
       </c>
       <c r="I12">
-        <v>0.6747257113456726</v>
+        <v>0.6775767207145691</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="L12">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1363,40 +1366,40 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>64782.8622572087</v>
+        <v>3.642119289995615</v>
       </c>
       <c r="C13">
-        <v>0.07599162728118322</v>
+        <v>0.298385721913958</v>
       </c>
       <c r="D13">
-        <v>0.2533054242706108</v>
+        <v>0.42626531701994</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0.5734695196151733</v>
+        <v>0.5652395486831665</v>
       </c>
       <c r="I13">
-        <v>0.8834137320518494</v>
+        <v>0.7541321516036987</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="L13">
-        <v>1700000</v>
+        <v>200000</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1404,13 +1407,13 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>59677.14438279159</v>
+        <v>3.471213080139209</v>
       </c>
       <c r="C14">
-        <v>0.298385721913958</v>
+        <v>0.2595663638820696</v>
       </c>
       <c r="D14">
-        <v>0.42626531701994</v>
+        <v>0.3708090912600994</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -1422,19 +1425,19 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.5652395486831665</v>
+        <v>0.5264302492141724</v>
       </c>
       <c r="I14">
-        <v>0.7541321516036987</v>
+        <v>0.7043840885162354</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>200000</v>
+        <v>285000</v>
       </c>
       <c r="L14">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1445,37 +1448,37 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>46152.43894470999</v>
+        <v>3.407622135006988</v>
       </c>
       <c r="C15">
-        <v>0.1792327726008155</v>
+        <v>0.2859127839479725</v>
       </c>
       <c r="D15">
-        <v>0.256046818001165</v>
+        <v>0.4084468342113894</v>
       </c>
       <c r="E15">
         <v>-1</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.6439853310585022</v>
+        <v>0.6033399105072021</v>
       </c>
       <c r="I15">
-        <v>0.7951945662498474</v>
+        <v>0.6769763231277466</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="L15">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1486,16 +1489,16 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>42886.91759219588</v>
+        <v>3.346179783006812</v>
       </c>
       <c r="C16">
-        <v>0.2859127839479725</v>
+        <v>0.2549982176817892</v>
       </c>
       <c r="D16">
-        <v>0.4084468342113894</v>
+        <v>0.3642831681168417</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1504,22 +1507,22 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.6033399105072021</v>
+        <v>0.539898157119751</v>
       </c>
       <c r="I16">
-        <v>0.6769763231277466</v>
+        <v>0.6747257113456726</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="L16">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1527,37 +1530,37 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>41167.84957913184</v>
+        <v>2.904328959698433</v>
       </c>
       <c r="C17">
-        <v>0.07485063559842153</v>
+        <v>0.2663062347347633</v>
       </c>
       <c r="D17">
-        <v>0.1069294794263165</v>
+        <v>0.3804374781925191</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0.5669128894805908</v>
+        <v>0.5147936344146729</v>
       </c>
       <c r="I17">
-        <v>0.7544685006141663</v>
+        <v>0.7390096783638</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
+        <v>9000</v>
+      </c>
+      <c r="L17">
         <v>100000</v>
-      </c>
-      <c r="L17">
-        <v>1000000</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1568,16 +1571,16 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>40992.32645517283</v>
+        <v>2.875125764040082</v>
       </c>
       <c r="C18">
-        <v>0.157662794058357</v>
+        <v>0.3121594244666817</v>
       </c>
       <c r="D18">
-        <v>0.5255426468611901</v>
+        <v>0.4459420349524024</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -1586,22 +1589,22 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.6214314699172974</v>
+        <v>0.6233161687850952</v>
       </c>
       <c r="I18">
-        <v>0.8456968665122986</v>
+        <v>0.715434730052948</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L18">
-        <v>500000</v>
+        <v>10000</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1609,37 +1612,37 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>39183.53019071413</v>
+        <v>2.536546401416735</v>
       </c>
       <c r="C19">
-        <v>0.03898858725444192</v>
+        <v>0.2945128436141218</v>
       </c>
       <c r="D19">
-        <v>0.0556979817920599</v>
+        <v>0.4207326337344597</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.6458480954170227</v>
+        <v>0.5758631229400635</v>
       </c>
       <c r="I19">
-        <v>0.8624006509780884</v>
+        <v>0.7306122183799744</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
+        <v>1000</v>
+      </c>
+      <c r="L19">
         <v>10000</v>
-      </c>
-      <c r="L19">
-        <v>2000000</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1650,16 +1653,16 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>36015.86309447228</v>
+        <v>2.23648097519554</v>
       </c>
       <c r="C20">
-        <v>0.3601586309447228</v>
+        <v>0.2596729045941501</v>
       </c>
       <c r="D20">
-        <v>0.5145123299210326</v>
+        <v>0.3709612922773573</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1668,19 +1671,19 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.6274760961532593</v>
+        <v>0.5269726514816284</v>
       </c>
       <c r="I20">
-        <v>0.8199712038040161</v>
+        <v>0.703947901725769</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="L20">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1691,37 +1694,37 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>24335.42530989288</v>
+        <v>2.233021482344144</v>
       </c>
       <c r="C21">
-        <v>0.02317659553323132</v>
+        <v>0.1792327726008155</v>
       </c>
       <c r="D21">
-        <v>0.0772553184441044</v>
+        <v>0.256046818001165</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H21">
-        <v>0.5687967538833618</v>
+        <v>0.6439853310585022</v>
       </c>
       <c r="I21">
-        <v>0.9054824113845825</v>
+        <v>0.7951945662498474</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>100000</v>
+        <v>15000</v>
       </c>
       <c r="L21">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1732,13 +1735,13 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>20951.34253536224</v>
+        <v>2.042905445621165</v>
       </c>
       <c r="C22">
-        <v>0.3990731911497569</v>
+        <v>0.1799850359348891</v>
       </c>
       <c r="D22">
-        <v>0.570104558785367</v>
+        <v>0.5999501197829638</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1750,19 +1753,19 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.6901546716690063</v>
+        <v>0.6863656640052795</v>
       </c>
       <c r="I22">
-        <v>0.8260533213615417</v>
+        <v>0.8740969300270081</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L22">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1773,37 +1776,37 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>19930.88757964343</v>
+        <v>2.029366635278704</v>
       </c>
       <c r="C23">
-        <v>0.037963595389797</v>
+        <v>0.1748211449270769</v>
       </c>
       <c r="D23">
-        <v>0.05423370769971001</v>
+        <v>0.2497444927529671</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H23">
-        <v>0.6092449426651001</v>
+        <v>0.6228539943695068</v>
       </c>
       <c r="I23">
-        <v>0.8901790380477905</v>
+        <v>0.8019359111785889</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L23">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1814,37 +1817,37 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>19230.32594197846</v>
+        <v>1.965809207164775</v>
       </c>
       <c r="C24">
-        <v>0.1748211449270769</v>
+        <v>0.157662794058357</v>
       </c>
       <c r="D24">
-        <v>0.2497444927529671</v>
+        <v>0.5255426468611901</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0.6228539943695068</v>
+        <v>0.6214314699172974</v>
       </c>
       <c r="I24">
-        <v>0.8019359111785889</v>
+        <v>0.8456968665122986</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>20000</v>
       </c>
       <c r="L24">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1855,37 +1858,37 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>15345.42417139755</v>
+        <v>1.957661580319286</v>
       </c>
       <c r="C25">
-        <v>0.01918178021424694</v>
+        <v>0.2035864819015017</v>
       </c>
       <c r="D25">
-        <v>0.06393926738082314</v>
+        <v>0.2908378312878597</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H25">
-        <v>0.7061423659324646</v>
+        <v>0.6159035563468933</v>
       </c>
       <c r="I25">
-        <v>0.9054727554321289</v>
+        <v>0.9444265365600586</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="L25">
-        <v>1500000</v>
+        <v>25000</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1896,37 +1899,37 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>15298.72805446558</v>
+        <v>1.745018543369765</v>
       </c>
       <c r="C26">
-        <v>0.1799850359348891</v>
+        <v>0.1814727272931371</v>
       </c>
       <c r="D26">
-        <v>0.5999501197829638</v>
+        <v>0.2592467532759102</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H26">
-        <v>0.6863656640052795</v>
+        <v>0.5960819721221924</v>
       </c>
       <c r="I26">
-        <v>0.8740969300270081</v>
+        <v>0.8698359131813049</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="L26">
-        <v>150000</v>
+        <v>25000</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1937,13 +1940,13 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>14513.6897930446</v>
+        <v>1.665370010750947</v>
       </c>
       <c r="C27">
-        <v>0.2663062347347633</v>
+        <v>0.1765366753072214</v>
       </c>
       <c r="D27">
-        <v>0.3804374781925191</v>
+        <v>0.5884555843574049</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1955,19 +1958,19 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.5147936344146729</v>
+        <v>0.6716648936271667</v>
       </c>
       <c r="I27">
-        <v>0.7390096783638</v>
+        <v>0.8761148452758789</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L27">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -1978,16 +1981,16 @@
         <v>39</v>
       </c>
       <c r="B28">
-        <v>13406.7175661305</v>
+        <v>1.621742849342042</v>
       </c>
       <c r="C28">
-        <v>0.08997797024248655</v>
+        <v>0.1686527051282352</v>
       </c>
       <c r="D28">
-        <v>0.2999265674749552</v>
+        <v>0.2409324358974789</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -1996,19 +1999,19 @@
         <v>0.5</v>
       </c>
       <c r="H28">
-        <v>0.6405520439147949</v>
+        <v>0.5728382468223572</v>
       </c>
       <c r="I28">
-        <v>0.9364627599716187</v>
+        <v>0.841188371181488</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L28">
-        <v>292000</v>
+        <v>25000</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2019,37 +2022,37 @@
         <v>40</v>
       </c>
       <c r="B29">
-        <v>13152.89927060661</v>
+        <v>1.502034707653527</v>
       </c>
       <c r="C29">
-        <v>0.03288224817651653</v>
+        <v>0.1602735608080472</v>
       </c>
       <c r="D29">
-        <v>0.1096074939217218</v>
+        <v>0.5342452026934907</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0.5220162868499756</v>
+        <v>0.6117736101150513</v>
       </c>
       <c r="I29">
-        <v>0.8398779630661011</v>
+        <v>0.873272716999054</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>400000</v>
+        <v>2500</v>
       </c>
       <c r="L29">
-        <v>400000</v>
+        <v>21000</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2060,37 +2063,37 @@
         <v>41</v>
       </c>
       <c r="B30">
-        <v>7930.832138014034</v>
+        <v>1.500742303208766</v>
       </c>
       <c r="C30">
-        <v>0.03166000853498616</v>
+        <v>0.1468152597363144</v>
       </c>
       <c r="D30">
-        <v>0.1055333617832872</v>
+        <v>0.4893841991210479</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0.5331243276596069</v>
+        <v>0.6117033958435059</v>
       </c>
       <c r="I30">
-        <v>0.7918105125427246</v>
+        <v>0.8000351190567017</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L30">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2101,37 +2104,37 @@
         <v>42</v>
       </c>
       <c r="B31">
-        <v>7454.205988580595</v>
+        <v>1.390861770908472</v>
       </c>
       <c r="C31">
-        <v>0.01987258328067341</v>
+        <v>0.1623667463639528</v>
       </c>
       <c r="D31">
-        <v>0.06624194426891136</v>
+        <v>0.5412224878798426</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0.7342482805252075</v>
+        <v>0.6487201452255249</v>
       </c>
       <c r="I31">
-        <v>0.902173638343811</v>
+        <v>0.8342927098274231</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L31">
-        <v>750000</v>
+        <v>10000</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2142,37 +2145,37 @@
         <v>43</v>
       </c>
       <c r="B32">
-        <v>6658.186937154001</v>
+        <v>1.376270762307319</v>
       </c>
       <c r="C32">
-        <v>0.05121682259349231</v>
+        <v>0.1318081290451886</v>
       </c>
       <c r="D32">
-        <v>0.07316688941927474</v>
+        <v>0.4393604301506286</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0.5703698396682739</v>
+        <v>0.5478577613830566</v>
       </c>
       <c r="I32">
-        <v>0.8551982045173645</v>
+        <v>0.8019607663154602</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L32">
-        <v>250000</v>
+        <v>65000</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2183,37 +2186,37 @@
         <v>44</v>
       </c>
       <c r="B33">
-        <v>6222.008000369474</v>
+        <v>1.338045090280096</v>
       </c>
       <c r="C33">
-        <v>0.0281011132957093</v>
+        <v>0.1308988472227035</v>
       </c>
       <c r="D33">
-        <v>0.09367037765236433</v>
+        <v>0.1869983531752908</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H33">
-        <v>0.6765602231025696</v>
+        <v>0.5161296725273132</v>
       </c>
       <c r="I33">
-        <v>0.9230060577392578</v>
+        <v>0.7246177196502686</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="L33">
-        <v>422830</v>
+        <v>50000</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2224,37 +2227,37 @@
         <v>45</v>
       </c>
       <c r="B34">
-        <v>6101.14638379467</v>
+        <v>1.309512445597494</v>
       </c>
       <c r="C34">
-        <v>0.0203371546126489</v>
+        <v>0.1537456847702785</v>
       </c>
       <c r="D34">
-        <v>0.06779051537549634</v>
+        <v>0.5124856159009283</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0.5785406827926636</v>
+        <v>0.6060317754745483</v>
       </c>
       <c r="I34">
-        <v>0.7811667919158936</v>
+        <v>0.8456414937973022</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="L34">
-        <v>500000</v>
+        <v>9000</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2265,37 +2268,37 @@
         <v>46</v>
       </c>
       <c r="B35">
-        <v>5414.256111308686</v>
+        <v>1.071791334622963</v>
       </c>
       <c r="C35">
-        <v>0.02062573756689023</v>
+        <v>0.08997797024248655</v>
       </c>
       <c r="D35">
-        <v>0.06875245855630077</v>
+        <v>0.2999265674749552</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H35">
-        <v>0.5490518808364868</v>
+        <v>0.6405520439147949</v>
       </c>
       <c r="I35">
-        <v>0.8348022103309631</v>
+        <v>0.9364627599716187</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="L35">
-        <v>500000</v>
+        <v>292000</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2306,37 +2309,37 @@
         <v>47</v>
       </c>
       <c r="B36">
-        <v>4876.939677614771</v>
+        <v>1.062301041797963</v>
       </c>
       <c r="C36">
-        <v>0.04790706952470306</v>
+        <v>0.1039232405432031</v>
       </c>
       <c r="D36">
-        <v>0.0684386707495758</v>
+        <v>0.3464108018106771</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0.7306587100028992</v>
+        <v>0.490372896194458</v>
       </c>
       <c r="I36">
-        <v>0.9366708397865295</v>
+        <v>0.7064232230186462</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="L36">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2347,37 +2350,37 @@
         <v>48</v>
       </c>
       <c r="B37">
-        <v>4514.428419797709</v>
+        <v>1.037736316988899</v>
       </c>
       <c r="C37">
-        <v>0.1318081290451886</v>
+        <v>0.07599162728118322</v>
       </c>
       <c r="D37">
-        <v>0.4393604301506286</v>
+        <v>0.2533054242706108</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H37">
-        <v>0.5478577613830566</v>
+        <v>0.5734695196151733</v>
       </c>
       <c r="I37">
-        <v>0.8019607663154602</v>
+        <v>0.8834137320518494</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L37">
-        <v>65000</v>
+        <v>1700000</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2388,37 +2391,37 @@
         <v>49</v>
       </c>
       <c r="B38">
-        <v>4424.822768012579</v>
+        <v>0.989351402981458</v>
       </c>
       <c r="C38">
-        <v>0.01340855384246236</v>
+        <v>0.07485063559842153</v>
       </c>
       <c r="D38">
-        <v>0.04469517947487454</v>
+        <v>0.1069294794263165</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H38">
-        <v>0.5510463118553162</v>
+        <v>0.5669128894805908</v>
       </c>
       <c r="I38">
-        <v>0.8110966086387634</v>
+        <v>0.7544685006141663</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="L38">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2429,37 +2432,37 @@
         <v>50</v>
       </c>
       <c r="B39">
-        <v>4415.401594277399</v>
+        <v>0.9726825167991037</v>
       </c>
       <c r="C39">
-        <v>0.02487550193959098</v>
+        <v>0.09137073914081774</v>
       </c>
       <c r="D39">
-        <v>0.08291833979863661</v>
+        <v>0.3045691304693925</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H39">
-        <v>0.5872449278831482</v>
+        <v>0.6749104261398315</v>
       </c>
       <c r="I39">
-        <v>0.9413260221481323</v>
+        <v>0.9025468230247498</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L39">
-        <v>345000</v>
+        <v>80000</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2470,37 +2473,37 @@
         <v>51</v>
       </c>
       <c r="B40">
-        <v>4387.006151633709</v>
+        <v>0.9482977619356745</v>
       </c>
       <c r="C40">
-        <v>0.05849341535511612</v>
+        <v>0.1480888223707169</v>
       </c>
       <c r="D40">
-        <v>0.08356202193588018</v>
+        <v>0.2115554605295955</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H40">
-        <v>0.6136937141418457</v>
+        <v>0.5919263362884521</v>
       </c>
       <c r="I40">
-        <v>0.9077494740486145</v>
+        <v>0.7148033380508423</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <v>50000</v>
+        <v>180</v>
       </c>
       <c r="L40">
-        <v>100000</v>
+        <v>1026</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2511,37 +2514,37 @@
         <v>52</v>
       </c>
       <c r="B41">
-        <v>4178.683778296449</v>
+        <v>0.903646015288842</v>
       </c>
       <c r="C41">
-        <v>0.02695925018255774</v>
+        <v>0.09184325624908851</v>
       </c>
       <c r="D41">
-        <v>0.08986416727519247</v>
+        <v>0.3061441874969617</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H41">
-        <v>0.6692901849746704</v>
+        <v>0.663622260093689</v>
       </c>
       <c r="I41">
-        <v>0.8951191306114197</v>
+        <v>0.9226459264755249</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="L41">
-        <v>300000</v>
+        <v>35000</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2552,28 +2555,28 @@
         <v>53</v>
       </c>
       <c r="B42">
-        <v>4037.419642748645</v>
+        <v>0.8995357277387419</v>
       </c>
       <c r="C42">
-        <v>0.1468152597363144</v>
+        <v>0.09354697256977858</v>
       </c>
       <c r="D42">
-        <v>0.4893841991210479</v>
+        <v>0.3118232418992619</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H42">
-        <v>0.6117033958435059</v>
+        <v>0.6550761461257935</v>
       </c>
       <c r="I42">
-        <v>0.8000351190567017</v>
+        <v>0.9520213603973389</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2582,7 +2585,7 @@
         <v>5000</v>
       </c>
       <c r="L42">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2593,16 +2596,16 @@
         <v>54</v>
       </c>
       <c r="B43">
-        <v>3970.404795592834</v>
+        <v>0.8855264221286605</v>
       </c>
       <c r="C43">
-        <v>0.07940809591185669</v>
+        <v>0.09386976434672416</v>
       </c>
       <c r="D43">
-        <v>0.2646936530395223</v>
+        <v>0.3128992144890805</v>
       </c>
       <c r="E43">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -2611,19 +2614,19 @@
         <v>0.5</v>
       </c>
       <c r="H43">
-        <v>0.6054465770721436</v>
+        <v>0.6559802889823914</v>
       </c>
       <c r="I43">
-        <v>0.8743749260902405</v>
+        <v>0.9539896845817566</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="L43">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -2634,37 +2637,37 @@
         <v>55</v>
       </c>
       <c r="B44">
-        <v>3906.678075589064</v>
+        <v>0.8737889641177979</v>
       </c>
       <c r="C44">
-        <v>0.03720645786275299</v>
+        <v>0.09086944491196824</v>
       </c>
       <c r="D44">
-        <v>0.1240215262091766</v>
+        <v>0.3028981497065608</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H44">
-        <v>0.5807040929794312</v>
+        <v>0.6363338232040405</v>
       </c>
       <c r="I44">
-        <v>0.8542838096618652</v>
+        <v>0.9520102143287659</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>105000</v>
+        <v>5000</v>
       </c>
       <c r="L44">
-        <v>105000</v>
+        <v>25000</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -2675,37 +2678,37 @@
         <v>56</v>
       </c>
       <c r="B45">
-        <v>3837.571043914345</v>
+        <v>0.8663429357909639</v>
       </c>
       <c r="C45">
-        <v>0.09137073914081774</v>
+        <v>0.09009509722775215</v>
       </c>
       <c r="D45">
-        <v>0.3045691304693925</v>
+        <v>0.1287072817539316</v>
       </c>
       <c r="E45">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H45">
-        <v>0.6749104261398315</v>
+        <v>0.6135701537132263</v>
       </c>
       <c r="I45">
-        <v>0.9025468230247498</v>
+        <v>0.8390713334083557</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L45">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2716,37 +2719,37 @@
         <v>57</v>
       </c>
       <c r="B46">
-        <v>3638.966485282114</v>
+        <v>0.8591795798995128</v>
       </c>
       <c r="C46">
-        <v>0.0142704568050279</v>
+        <v>0.07940809591185669</v>
       </c>
       <c r="D46">
-        <v>0.04756818935009299</v>
+        <v>0.2646936530395223</v>
       </c>
       <c r="E46">
         <v>-1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H46">
-        <v>0.6031015515327454</v>
+        <v>0.6054465770721436</v>
       </c>
       <c r="I46">
-        <v>0.7887260317802429</v>
+        <v>0.8743749260902405</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="L46">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2757,34 +2760,34 @@
         <v>58</v>
       </c>
       <c r="B47">
-        <v>3599.718298624347</v>
+        <v>0.8492091748695439</v>
       </c>
       <c r="C47">
-        <v>0.1308988472227035</v>
+        <v>0.08353515055379059</v>
       </c>
       <c r="D47">
-        <v>0.1869983531752908</v>
+        <v>0.119335929362558</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H47">
-        <v>0.5161296725273132</v>
+        <v>0.6056360006332397</v>
       </c>
       <c r="I47">
-        <v>0.7246177196502686</v>
+        <v>0.7881693243980408</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L47">
         <v>50000</v>
@@ -2798,37 +2801,37 @@
         <v>59</v>
       </c>
       <c r="B48">
-        <v>3391.313035898552</v>
+        <v>0.825889868207457</v>
       </c>
       <c r="C48">
-        <v>0.02948134688804079</v>
+        <v>0.08453313652207761</v>
       </c>
       <c r="D48">
-        <v>0.04211620984005827</v>
+        <v>0.2817771217402587</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H48">
-        <v>0.5466122031211853</v>
+        <v>0.6223393082618713</v>
       </c>
       <c r="I48">
-        <v>0.7704952359199524</v>
+        <v>0.9055417776107788</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>30065</v>
+        <v>10000</v>
       </c>
       <c r="L48">
-        <v>200000</v>
+        <v>25000</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -2839,37 +2842,37 @@
         <v>60</v>
       </c>
       <c r="B49">
-        <v>3296.96714231773</v>
+        <v>0.7944962218223039</v>
       </c>
       <c r="C49">
-        <v>0.07326593649594955</v>
+        <v>0.0826234178118046</v>
       </c>
       <c r="D49">
-        <v>0.2442197883198318</v>
+        <v>0.1180334540168637</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H49">
-        <v>0.5733252763748169</v>
+        <v>0.5414159297943115</v>
       </c>
       <c r="I49">
-        <v>0.8519414663314819</v>
+        <v>0.8720353245735168</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L49">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -2880,40 +2883,40 @@
         <v>61</v>
       </c>
       <c r="B50">
-        <v>3121.594244666816</v>
+        <v>0.7850034799503229</v>
       </c>
       <c r="C50">
-        <v>0.3121594244666817</v>
+        <v>0.07326593649594955</v>
       </c>
       <c r="D50">
-        <v>0.4459420349524024</v>
+        <v>0.2442197883198318</v>
       </c>
       <c r="E50">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H50">
-        <v>0.6233161687850952</v>
+        <v>0.5733252763748169</v>
       </c>
       <c r="I50">
-        <v>0.715434730052948</v>
+        <v>0.8519414663314819</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>10000</v>
       </c>
       <c r="L50">
-        <v>10000</v>
+        <v>80000</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2921,13 +2924,13 @@
         <v>62</v>
       </c>
       <c r="B51">
-        <v>3053.797228522526</v>
+        <v>0.745503082769449</v>
       </c>
       <c r="C51">
-        <v>0.2035864819015017</v>
+        <v>0.07752838968367683</v>
       </c>
       <c r="D51">
-        <v>0.2908378312878597</v>
+        <v>0.2584279656122561</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -2939,13 +2942,13 @@
         <v>0.5</v>
       </c>
       <c r="H51">
-        <v>0.6159035563468933</v>
+        <v>0.570414125919342</v>
       </c>
       <c r="I51">
-        <v>0.9444265365600586</v>
+        <v>0.9061064720153809</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>5000</v>
@@ -2962,37 +2965,37 @@
         <v>63</v>
       </c>
       <c r="B52">
-        <v>3027.42694231543</v>
+        <v>0.7401408872911814</v>
       </c>
       <c r="C52">
-        <v>0.02226049222290757</v>
+        <v>0.0782247596330528</v>
       </c>
       <c r="D52">
-        <v>0.07420164074302525</v>
+        <v>0.2607491987768427</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H52">
-        <v>0.5627223253250122</v>
+        <v>0.6096168160438538</v>
       </c>
       <c r="I52">
-        <v>0.8790794014930725</v>
+        <v>0.8554527759552002</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>10000</v>
+        <v>12857</v>
       </c>
       <c r="L52">
-        <v>262000</v>
+        <v>12857</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -3003,28 +3006,28 @@
         <v>64</v>
       </c>
       <c r="B53">
-        <v>2857.889114938086</v>
+        <v>0.7174419958578102</v>
       </c>
       <c r="C53">
-        <v>0.1039232405432031</v>
+        <v>0.07343306234540936</v>
       </c>
       <c r="D53">
-        <v>0.3464108018106771</v>
+        <v>0.2447768744846979</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H53">
-        <v>0.490372896194458</v>
+        <v>0.5885675549507141</v>
       </c>
       <c r="I53">
-        <v>0.7064232230186462</v>
+        <v>0.8317715525627136</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3033,7 +3036,7 @@
         <v>5000</v>
       </c>
       <c r="L53">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -3044,16 +3047,16 @@
         <v>65</v>
       </c>
       <c r="B54">
-        <v>2722.090909397057</v>
+        <v>0.6859603267436802</v>
       </c>
       <c r="C54">
-        <v>0.1814727272931371</v>
+        <v>0.07133625701689147</v>
       </c>
       <c r="D54">
-        <v>0.2592467532759102</v>
+        <v>0.2377875233896383</v>
       </c>
       <c r="E54">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F54">
         <v>5</v>
@@ -3062,13 +3065,13 @@
         <v>0.5</v>
       </c>
       <c r="H54">
-        <v>0.5960819721221924</v>
+        <v>0.5618187189102173</v>
       </c>
       <c r="I54">
-        <v>0.8698359131813049</v>
+        <v>0.8464919924736023</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>5000</v>
@@ -3085,37 +3088,37 @@
         <v>66</v>
       </c>
       <c r="B55">
-        <v>2671.696042910055</v>
+        <v>0.6708328360087609</v>
       </c>
       <c r="C55">
-        <v>0.04110301604477007</v>
+        <v>0.06976307774541723</v>
       </c>
       <c r="D55">
-        <v>0.1370100534825669</v>
+        <v>0.2325435924847241</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H55">
-        <v>0.5917206406593323</v>
+        <v>0.5617633461952209</v>
       </c>
       <c r="I55">
-        <v>0.9261806607246399</v>
+        <v>0.8279058933258057</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L55">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3126,34 +3129,34 @@
         <v>67</v>
       </c>
       <c r="B56">
-        <v>2666.755646552662</v>
+        <v>0.6566036041278598</v>
       </c>
       <c r="C56">
-        <v>0.04848646630095749</v>
+        <v>0.05849341535511612</v>
       </c>
       <c r="D56">
-        <v>0.06926638042993928</v>
+        <v>0.08356202193588018</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H56">
-        <v>0.7424224615097046</v>
+        <v>0.6136937141418457</v>
       </c>
       <c r="I56">
-        <v>0.9329779744148254</v>
+        <v>0.9077494740486145</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="L56">
         <v>100000</v>
@@ -3167,16 +3170,16 @@
         <v>68</v>
       </c>
       <c r="B57">
-        <v>2529.790576923529</v>
+        <v>0.6093904599315004</v>
       </c>
       <c r="C57">
-        <v>0.1686527051282352</v>
+        <v>0.06337339460968429</v>
       </c>
       <c r="D57">
-        <v>0.2409324358974789</v>
+        <v>0.2112446486989477</v>
       </c>
       <c r="E57">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -3185,13 +3188,13 @@
         <v>0.5</v>
       </c>
       <c r="H57">
-        <v>0.5728382468223572</v>
+        <v>0.5087756514549255</v>
       </c>
       <c r="I57">
-        <v>0.841188371181488</v>
+        <v>0.8304039239883423</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>5000</v>
@@ -3208,28 +3211,28 @@
         <v>69</v>
       </c>
       <c r="B58">
-        <v>2230.131947246769</v>
+        <v>0.603093319033627</v>
       </c>
       <c r="C58">
-        <v>0.0405478535863049</v>
+        <v>0.05121682259349231</v>
       </c>
       <c r="D58">
-        <v>0.05792550512329271</v>
+        <v>0.07316688941927474</v>
       </c>
       <c r="E58">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H58">
-        <v>0.6722654700279236</v>
+        <v>0.5703698396682739</v>
       </c>
       <c r="I58">
-        <v>0.861646294593811</v>
+        <v>0.8551982045173645</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -3238,7 +3241,7 @@
         <v>10000</v>
       </c>
       <c r="L58">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -3249,37 +3252,37 @@
         <v>70</v>
       </c>
       <c r="B59">
-        <v>2206.708441340268</v>
+        <v>0.5524056494787277</v>
       </c>
       <c r="C59">
-        <v>0.1765366753072214</v>
+        <v>0.04790706952470306</v>
       </c>
       <c r="D59">
-        <v>0.5884555843574049</v>
+        <v>0.0684386707495758</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H59">
-        <v>0.6716648936271667</v>
+        <v>0.7306587100028992</v>
       </c>
       <c r="I59">
-        <v>0.8761148452758789</v>
+        <v>0.9366708397865295</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="L59">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -3290,37 +3293,37 @@
         <v>71</v>
       </c>
       <c r="B60">
-        <v>2171.913914398555</v>
+        <v>0.5388417348458369</v>
       </c>
       <c r="C60">
-        <v>0.08353515055379059</v>
+        <v>0.03898858725444192</v>
       </c>
       <c r="D60">
-        <v>0.119335929362558</v>
+        <v>0.0556979817920599</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H60">
-        <v>0.6056360006332397</v>
+        <v>0.6458480954170227</v>
       </c>
       <c r="I60">
-        <v>0.7881693243980408</v>
+        <v>0.8624006509780884</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="L60">
-        <v>50000</v>
+        <v>2000000</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -3331,7 +3334,7 @@
         <v>72</v>
       </c>
       <c r="B61">
-        <v>2138.897177459013</v>
+        <v>0.5363489948252085</v>
       </c>
       <c r="C61">
         <v>0.0503269924108003</v>
@@ -3372,34 +3375,34 @@
         <v>73</v>
       </c>
       <c r="B62">
-        <v>2129.340219938421</v>
+        <v>0.5292349505562118</v>
       </c>
       <c r="C62">
-        <v>0.041548101852457</v>
+        <v>0.04848646630095749</v>
       </c>
       <c r="D62">
-        <v>0.1384936728415234</v>
+        <v>0.06926638042993928</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H62">
-        <v>0.5981217622756958</v>
+        <v>0.7424224615097046</v>
       </c>
       <c r="I62">
-        <v>0.9261904954910278</v>
+        <v>0.9329779744148254</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="L62">
         <v>100000</v>
@@ -3413,37 +3416,37 @@
         <v>74</v>
       </c>
       <c r="B63">
-        <v>2024.6392124576</v>
+        <v>0.5000244161807396</v>
       </c>
       <c r="C63">
-        <v>0.020246392124576</v>
+        <v>0.037963595389797</v>
       </c>
       <c r="D63">
-        <v>0.06748797374858669</v>
+        <v>0.05423370769971001</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0.1</v>
       </c>
       <c r="H63">
-        <v>0.7414063215255737</v>
+        <v>0.6092449426651001</v>
       </c>
       <c r="I63">
-        <v>0.9102697372436523</v>
+        <v>0.8901790380477905</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="L63">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -3454,13 +3457,13 @@
         <v>75</v>
       </c>
       <c r="B64">
-        <v>1958.822000338766</v>
+        <v>0.455510115346181</v>
       </c>
       <c r="C64">
-        <v>0.03731089524454791</v>
+        <v>0.04110301604477007</v>
       </c>
       <c r="D64">
-        <v>0.1243696508151597</v>
+        <v>0.1370100534825669</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -3472,16 +3475,16 @@
         <v>0.25</v>
       </c>
       <c r="H64">
-        <v>0.5800108313560486</v>
+        <v>0.5917206406593323</v>
       </c>
       <c r="I64">
-        <v>0.8577057123184204</v>
+        <v>0.9261806607246399</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="L64">
         <v>100000</v>
@@ -3495,28 +3498,28 @@
         <v>76</v>
       </c>
       <c r="B65">
-        <v>1883.214339494555</v>
+        <v>0.4505679920513502</v>
       </c>
       <c r="C65">
-        <v>0.1602735608080472</v>
+        <v>0.041548101852457</v>
       </c>
       <c r="D65">
-        <v>0.5342452026934907</v>
+        <v>0.1384936728415234</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H65">
-        <v>0.6117736101150513</v>
+        <v>0.5981217622756958</v>
       </c>
       <c r="I65">
-        <v>0.873272716999054</v>
+        <v>0.9261904954910278</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3525,7 +3528,7 @@
         <v>2500</v>
       </c>
       <c r="L65">
-        <v>21000</v>
+        <v>100000</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -3536,16 +3539,16 @@
         <v>77</v>
       </c>
       <c r="B66">
-        <v>1864.482201076964</v>
+        <v>0.442584146155539</v>
       </c>
       <c r="C66">
-        <v>0.03517890945428234</v>
+        <v>0.0405478535863049</v>
       </c>
       <c r="D66">
-        <v>0.05025558493468907</v>
+        <v>0.05792550512329271</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3554,16 +3557,16 @@
         <v>0.1</v>
       </c>
       <c r="H66">
-        <v>0.6135261058807373</v>
+        <v>0.6722654700279236</v>
       </c>
       <c r="I66">
-        <v>0.819127082824707</v>
+        <v>0.861646294593811</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L66">
         <v>100000</v>
@@ -3577,37 +3580,37 @@
         <v>78</v>
       </c>
       <c r="B67">
-        <v>1848.42917691504</v>
+        <v>0.4301708397222478</v>
       </c>
       <c r="C67">
-        <v>0.01421868597626954</v>
+        <v>0.03720645786275299</v>
       </c>
       <c r="D67">
-        <v>0.04739561992089847</v>
+        <v>0.1240215262091766</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G67">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H67">
-        <v>0.5656397342681885</v>
+        <v>0.5807040929794312</v>
       </c>
       <c r="I67">
-        <v>0.8379117846488953</v>
+        <v>0.8542838096618652</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>10000</v>
+        <v>105000</v>
       </c>
       <c r="L67">
-        <v>250000</v>
+        <v>105000</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -3618,37 +3621,37 @@
         <v>79</v>
       </c>
       <c r="B68">
-        <v>1722.06105467041</v>
+        <v>0.4279063871909591</v>
       </c>
       <c r="C68">
-        <v>0.09184325624908851</v>
+        <v>0.04380036714793235</v>
       </c>
       <c r="D68">
-        <v>0.3061441874969617</v>
+        <v>0.06257195306847478</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G68">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="H68">
-        <v>0.663622260093689</v>
+        <v>0.5558797121047974</v>
       </c>
       <c r="I68">
-        <v>0.9226459264755249</v>
+        <v>0.7504255771636963</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>2500</v>
+        <v>5830</v>
       </c>
       <c r="L68">
-        <v>35000</v>
+        <v>29151</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -3659,13 +3662,13 @@
         <v>80</v>
       </c>
       <c r="B69">
-        <v>1665.146663838488</v>
+        <v>0.4264263650647914</v>
       </c>
       <c r="C69">
-        <v>0.02345276991321814</v>
+        <v>0.04075513609805824</v>
       </c>
       <c r="D69">
-        <v>0.07817589971072714</v>
+        <v>0.05822162299722606</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -3677,19 +3680,19 @@
         <v>0.15</v>
       </c>
       <c r="H69">
-        <v>0.6010788679122925</v>
+        <v>0.4847296476364136</v>
       </c>
       <c r="I69">
-        <v>0.8670620322227478</v>
+        <v>0.800743579864502</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L69">
-        <v>125000</v>
+        <v>50000</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -3700,37 +3703,37 @@
         <v>81</v>
       </c>
       <c r="B70">
-        <v>1619.82063987767</v>
+        <v>0.4241554298104553</v>
       </c>
       <c r="C70">
-        <v>0.2945128436141218</v>
+        <v>0.03288224817651653</v>
       </c>
       <c r="D70">
-        <v>0.4207326337344597</v>
+        <v>0.1096074939217218</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H70">
-        <v>0.5758631229400635</v>
+        <v>0.5220162868499756</v>
       </c>
       <c r="I70">
-        <v>0.7306122183799744</v>
+        <v>0.8398779630661011</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>1000</v>
+        <v>400000</v>
       </c>
       <c r="L70">
-        <v>10000</v>
+        <v>400000</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -3741,34 +3744,34 @@
         <v>82</v>
       </c>
       <c r="B71">
-        <v>1479.329889136358</v>
+        <v>0.4164784338012397</v>
       </c>
       <c r="C71">
-        <v>0.08453313652207761</v>
+        <v>0.04331156108790424</v>
       </c>
       <c r="D71">
-        <v>0.2817771217402587</v>
+        <v>0.1443718702930141</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H71">
-        <v>0.6223393082618713</v>
+        <v>0.6538244485855103</v>
       </c>
       <c r="I71">
-        <v>0.9055417776107788</v>
+        <v>0.8832454681396484</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L71">
         <v>25000</v>
@@ -3782,37 +3785,37 @@
         <v>83</v>
       </c>
       <c r="B72">
-        <v>1428.200975267825</v>
+        <v>0.4111405045655624</v>
       </c>
       <c r="C72">
-        <v>0.2596729045941501</v>
+        <v>0.04275644459348262</v>
       </c>
       <c r="D72">
-        <v>0.3709612922773573</v>
+        <v>0.1425214819782754</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H72">
-        <v>0.5269726514816284</v>
+        <v>0.6004976630210876</v>
       </c>
       <c r="I72">
-        <v>0.703947901725769</v>
+        <v>0.9493557810783386</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L72">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -3823,28 +3826,28 @@
         <v>84</v>
       </c>
       <c r="B73">
-        <v>1426.429763432038</v>
+        <v>0.4103662266509178</v>
       </c>
       <c r="C73">
-        <v>0.04075513609805824</v>
+        <v>0.03922020960093224</v>
       </c>
       <c r="D73">
-        <v>0.05822162299722606</v>
+        <v>0.05602887085847463</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H73">
-        <v>0.4847296476364136</v>
+        <v>0.6411263346672058</v>
       </c>
       <c r="I73">
-        <v>0.800743579864502</v>
+        <v>0.8739131093025208</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3864,37 +3867,37 @@
         <v>85</v>
       </c>
       <c r="B74">
-        <v>1403.204588546679</v>
+        <v>0.4084636028696124</v>
       </c>
       <c r="C74">
-        <v>0.09354697256977858</v>
+        <v>0.03995935199528439</v>
       </c>
       <c r="D74">
-        <v>0.3118232418992619</v>
+        <v>0.057084788564692</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H74">
-        <v>0.6550761461257935</v>
+        <v>0.6595873236656189</v>
       </c>
       <c r="I74">
-        <v>0.9520213603973389</v>
+        <v>0.8654621839523315</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <v>5000</v>
       </c>
       <c r="L74">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -3905,37 +3908,37 @@
         <v>86</v>
       </c>
       <c r="B75">
-        <v>1372.707336032629</v>
+        <v>0.405516729520107</v>
       </c>
       <c r="C75">
-        <v>0.03922020960093224</v>
+        <v>0.03731089524454791</v>
       </c>
       <c r="D75">
-        <v>0.05602887085847463</v>
+        <v>0.1243696508151597</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H75">
-        <v>0.6411263346672058</v>
+        <v>0.5800108313560486</v>
       </c>
       <c r="I75">
-        <v>0.8739131093025208</v>
+        <v>0.8577057123184204</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="L75">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -3946,37 +3949,37 @@
         <v>87</v>
       </c>
       <c r="B76">
-        <v>1369.286829234747</v>
+        <v>0.4045362515056798</v>
       </c>
       <c r="C76">
-        <v>0.0156489923341114</v>
+        <v>0.04696981758716951</v>
       </c>
       <c r="D76">
-        <v>0.05216330778037134</v>
+        <v>0.1565660586238984</v>
       </c>
       <c r="E76">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G76">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H76">
-        <v>0.6397249698638916</v>
+        <v>0.4215347170829773</v>
       </c>
       <c r="I76">
-        <v>0.815402090549469</v>
+        <v>0.7428382635116577</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>50000</v>
+        <v>3000</v>
       </c>
       <c r="L76">
-        <v>125000</v>
+        <v>8000</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -3987,37 +3990,37 @@
         <v>88</v>
       </c>
       <c r="B77">
-        <v>1363.041673679524</v>
+        <v>0.4001609186522216</v>
       </c>
       <c r="C77">
-        <v>0.09086944491196824</v>
+        <v>0.03881670989829211</v>
       </c>
       <c r="D77">
-        <v>0.3028981497065608</v>
+        <v>0.05545244271184586</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H77">
-        <v>0.6363338232040405</v>
+        <v>0.624219536781311</v>
       </c>
       <c r="I77">
-        <v>0.9520102143287659</v>
+        <v>0.888348400592804</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L77">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -4028,13 +4031,13 @@
         <v>89</v>
       </c>
       <c r="B78">
-        <v>1351.426458416282</v>
+        <v>0.3935724740436419</v>
       </c>
       <c r="C78">
-        <v>0.09009509722775215</v>
+        <v>0.03166000853498616</v>
       </c>
       <c r="D78">
-        <v>0.1287072817539316</v>
+        <v>0.1055333617832872</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -4046,19 +4049,19 @@
         <v>0.25</v>
       </c>
       <c r="H78">
-        <v>0.6135701537132263</v>
+        <v>0.5331243276596069</v>
       </c>
       <c r="I78">
-        <v>0.8390713334083557</v>
+        <v>0.7918105125427246</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L78">
-        <v>25000</v>
+        <v>500000</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -4069,28 +4072,28 @@
         <v>90</v>
       </c>
       <c r="B79">
-        <v>1285.078591044664</v>
+        <v>0.3923480327452969</v>
       </c>
       <c r="C79">
-        <v>0.07343306234540936</v>
+        <v>0.04080212661402011</v>
       </c>
       <c r="D79">
-        <v>0.2447768744846979</v>
+        <v>0.1360070887134004</v>
       </c>
       <c r="E79">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H79">
-        <v>0.5885675549507141</v>
+        <v>0.5836571455001831</v>
       </c>
       <c r="I79">
-        <v>0.8317715525627136</v>
+        <v>0.9321026206016541</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4099,7 +4102,7 @@
         <v>5000</v>
       </c>
       <c r="L79">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -4110,37 +4113,37 @@
         <v>91</v>
       </c>
       <c r="B80">
-        <v>1239.351267177069</v>
+        <v>0.3851965935578906</v>
       </c>
       <c r="C80">
-        <v>0.0826234178118046</v>
+        <v>0.037963595389797</v>
       </c>
       <c r="D80">
-        <v>0.1180334540168637</v>
+        <v>0.05423370769971001</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H80">
-        <v>0.5414159297943115</v>
+        <v>0.6092449426651001</v>
       </c>
       <c r="I80">
-        <v>0.8720353245735168</v>
+        <v>0.8901790380477905</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L80">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -4151,13 +4154,13 @@
         <v>92</v>
       </c>
       <c r="B81">
-        <v>1231.328189542653</v>
+        <v>0.3826785009723198</v>
       </c>
       <c r="C81">
-        <v>0.0158881056715181</v>
+        <v>0.03517890945428234</v>
       </c>
       <c r="D81">
-        <v>0.05296035223839368</v>
+        <v>0.05025558493468907</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4169,19 +4172,19 @@
         <v>0.1</v>
       </c>
       <c r="H81">
-        <v>0.6566673517227173</v>
+        <v>0.6135261058807373</v>
       </c>
       <c r="I81">
-        <v>0.8065019845962524</v>
+        <v>0.819127082824707</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L81">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -4192,37 +4195,37 @@
         <v>93</v>
       </c>
       <c r="B82">
-        <v>1173.372054334052</v>
+        <v>0.3812093000905299</v>
       </c>
       <c r="C82">
-        <v>0.09386976434672416</v>
+        <v>0.04361414595409428</v>
       </c>
       <c r="D82">
-        <v>0.3128992144890805</v>
+        <v>0.06230592279156327</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G82">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="H82">
-        <v>0.6559802889823914</v>
+        <v>0.5700345039367676</v>
       </c>
       <c r="I82">
-        <v>0.9539896845817566</v>
+        <v>0.7286801338195801</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L82">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -4233,37 +4236,37 @@
         <v>94</v>
       </c>
       <c r="B83">
-        <v>1170.084320185116</v>
+        <v>0.379819970795938</v>
       </c>
       <c r="C83">
-        <v>0.0195014053364186</v>
+        <v>0.03684358200101272</v>
       </c>
       <c r="D83">
-        <v>0.06500468445472868</v>
+        <v>0.05263368857287531</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H83">
-        <v>0.5423303842544556</v>
+        <v>0.6250721216201782</v>
       </c>
       <c r="I83">
-        <v>0.7990785241127014</v>
+        <v>0.8420418500900269</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L83">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -4274,37 +4277,37 @@
         <v>95</v>
       </c>
       <c r="B84">
-        <v>1164.501296948763</v>
+        <v>0.3769955945069363</v>
       </c>
       <c r="C84">
-        <v>0.03881670989829211</v>
+        <v>0.03770392109362593</v>
       </c>
       <c r="D84">
-        <v>0.05545244271184586</v>
+        <v>0.05386274441946562</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>0.1</v>
       </c>
       <c r="H84">
-        <v>0.624219536781311</v>
+        <v>0.6623817086219788</v>
       </c>
       <c r="I84">
-        <v>0.888348400592804</v>
+        <v>0.8131677508354187</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L84">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -4315,37 +4318,37 @@
         <v>96</v>
       </c>
       <c r="B85">
-        <v>1162.925845255152</v>
+        <v>0.3709741547080757</v>
       </c>
       <c r="C85">
-        <v>0.07752838968367683</v>
+        <v>0.04225357103962768</v>
       </c>
       <c r="D85">
-        <v>0.2584279656122561</v>
+        <v>0.1408452367987589</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H85">
-        <v>0.570414125919342</v>
+        <v>0.6101742386817932</v>
       </c>
       <c r="I85">
-        <v>0.9061064720153809</v>
+        <v>0.9233115911483765</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L85">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -4356,37 +4359,37 @@
         <v>97</v>
       </c>
       <c r="B86">
-        <v>1124.879892331851</v>
+        <v>0.3623368603693751</v>
       </c>
       <c r="C86">
-        <v>0.01757624831768517</v>
+        <v>0.03768112293127075</v>
       </c>
       <c r="D86">
-        <v>0.0585874943922839</v>
+        <v>0.1256037431042358</v>
       </c>
       <c r="E86">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H86">
-        <v>0.6686378717422485</v>
+        <v>0.5480002164840698</v>
       </c>
       <c r="I86">
-        <v>0.8762215971946716</v>
+        <v>0.9168152809143066</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>64000</v>
+        <v>5000</v>
       </c>
       <c r="L86">
-        <v>64000</v>
+        <v>25000</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -4397,37 +4400,37 @@
         <v>98</v>
       </c>
       <c r="B87">
-        <v>1110.908296994701</v>
+        <v>0.3605710357518916</v>
       </c>
       <c r="C87">
-        <v>0.01777453275191522</v>
+        <v>0.04186511273945825</v>
       </c>
       <c r="D87">
-        <v>0.05924844250638409</v>
+        <v>0.1395503757981942</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H87">
-        <v>0.6708694100379944</v>
+        <v>0.628278374671936</v>
       </c>
       <c r="I87">
-        <v>0.8831591010093689</v>
+        <v>0.8884620666503906</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="L87">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -4438,34 +4441,34 @@
         <v>99</v>
       </c>
       <c r="B88">
-        <v>1105.307460030381</v>
+        <v>0.3595568814721458</v>
       </c>
       <c r="C88">
-        <v>0.03684358200101272</v>
+        <v>0.03543663728109862</v>
       </c>
       <c r="D88">
-        <v>0.05263368857287531</v>
+        <v>0.1181221242703288</v>
       </c>
       <c r="E88">
         <v>-1</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H88">
-        <v>0.6250721216201782</v>
+        <v>0.5820419788360596</v>
       </c>
       <c r="I88">
-        <v>0.8420418500900269</v>
+        <v>0.8117773532867432</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="L88">
         <v>50000</v>
@@ -4479,13 +4482,13 @@
         <v>100</v>
       </c>
       <c r="B89">
-        <v>1098.882179870321</v>
+        <v>0.357475374768846</v>
       </c>
       <c r="C89">
-        <v>0.03995935199528439</v>
+        <v>0.03926104377099946</v>
       </c>
       <c r="D89">
-        <v>0.057084788564692</v>
+        <v>0.05608720538714209</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4497,19 +4500,19 @@
         <v>0.1</v>
       </c>
       <c r="H89">
-        <v>0.6595873236656189</v>
+        <v>0.6890575289726257</v>
       </c>
       <c r="I89">
-        <v>0.8654621839523315</v>
+        <v>0.8139698505401611</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L89">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -4520,28 +4523,28 @@
         <v>101</v>
       </c>
       <c r="B90">
-        <v>1070.043855253372</v>
+        <v>0.3510247973229318</v>
       </c>
       <c r="C90">
-        <v>0.07133625701689147</v>
+        <v>0.03650472802122823</v>
       </c>
       <c r="D90">
-        <v>0.2377875233896383</v>
+        <v>0.1216824267374275</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H90">
-        <v>0.5618187189102173</v>
+        <v>0.5751587152481079</v>
       </c>
       <c r="I90">
-        <v>0.8464919924736023</v>
+        <v>0.8462528586387634</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4561,37 +4564,37 @@
         <v>102</v>
       </c>
       <c r="B91">
-        <v>1057.56073953235</v>
+        <v>0.3458628418687116</v>
       </c>
       <c r="C91">
-        <v>0.01922837708240635</v>
+        <v>0.0281011132957093</v>
       </c>
       <c r="D91">
-        <v>0.06409459027468785</v>
+        <v>0.09367037765236433</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G91">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H91">
-        <v>0.7145496606826782</v>
+        <v>0.6765602231025696</v>
       </c>
       <c r="I91">
-        <v>0.8969928026199341</v>
+        <v>0.9230060577392578</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L91">
-        <v>100000</v>
+        <v>422830</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -4602,37 +4605,37 @@
         <v>103</v>
       </c>
       <c r="B92">
-        <v>1046.446166181259</v>
+        <v>0.3444003483423473</v>
       </c>
       <c r="C92">
-        <v>0.06976307774541723</v>
+        <v>0.03581582025695917</v>
       </c>
       <c r="D92">
-        <v>0.2325435924847241</v>
+        <v>0.1193860675231972</v>
       </c>
       <c r="E92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H92">
-        <v>0.5617633461952209</v>
+        <v>0.5439475178718567</v>
       </c>
       <c r="I92">
-        <v>0.8279058933258057</v>
+        <v>0.8779234290122986</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L92">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -4643,37 +4646,37 @@
         <v>104</v>
       </c>
       <c r="B93">
-        <v>1005.73573460216</v>
+        <v>0.3435455064277578</v>
       </c>
       <c r="C93">
-        <v>0.0782247596330528</v>
+        <v>0.02948134688804079</v>
       </c>
       <c r="D93">
-        <v>0.2607491987768427</v>
+        <v>0.04211620984005827</v>
       </c>
       <c r="E93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H93">
-        <v>0.6096168160438538</v>
+        <v>0.5466122031211853</v>
       </c>
       <c r="I93">
-        <v>0.8554527759552002</v>
+        <v>0.7704952359199524</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>12857</v>
+        <v>30065</v>
       </c>
       <c r="L93">
-        <v>12857</v>
+        <v>200000</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -4684,13 +4687,13 @@
         <v>105</v>
       </c>
       <c r="B94">
-        <v>968.0716824398236</v>
+        <v>0.3435405393808386</v>
       </c>
       <c r="C94">
-        <v>0.037963595389797</v>
+        <v>0.03850146387571939</v>
       </c>
       <c r="D94">
-        <v>0.05423370769971001</v>
+        <v>0.05500209125102771</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4702,19 +4705,19 @@
         <v>0.1</v>
       </c>
       <c r="H94">
-        <v>0.6092449426651001</v>
+        <v>0.6443421840667725</v>
       </c>
       <c r="I94">
-        <v>0.8901790380477905</v>
+        <v>0.8536161780357361</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L94">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -4725,28 +4728,28 @@
         <v>106</v>
       </c>
       <c r="B95">
-        <v>968.020634113112</v>
+        <v>0.3221950362000702</v>
       </c>
       <c r="C95">
-        <v>0.01489262514020172</v>
+        <v>0.02695925018255774</v>
       </c>
       <c r="D95">
-        <v>0.04964208380067241</v>
+        <v>0.08986416727519247</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G95">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H95">
-        <v>0.6313634514808655</v>
+        <v>0.6692901849746704</v>
       </c>
       <c r="I95">
-        <v>0.7862679362297058</v>
+        <v>0.8951191306114197</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -4755,7 +4758,7 @@
         <v>10000</v>
       </c>
       <c r="L95">
-        <v>120000</v>
+        <v>300000</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -4766,37 +4769,37 @@
         <v>107</v>
       </c>
       <c r="B96">
-        <v>950.6009191452644</v>
+        <v>0.3213273122609174</v>
       </c>
       <c r="C96">
-        <v>0.06337339460968429</v>
+        <v>0.02317659553323132</v>
       </c>
       <c r="D96">
-        <v>0.2112446486989477</v>
+        <v>0.0772553184441044</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G96">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="H96">
-        <v>0.5087756514549255</v>
+        <v>0.5687967538833618</v>
       </c>
       <c r="I96">
-        <v>0.8304039239883423</v>
+        <v>0.9054824113845825</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="L96">
-        <v>25000</v>
+        <v>2000000</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -4807,13 +4810,13 @@
         <v>108</v>
       </c>
       <c r="B97">
-        <v>903.6342506680149</v>
+        <v>0.3134563795013164</v>
       </c>
       <c r="C97">
-        <v>0.03543663728109862</v>
+        <v>0.0332137252519793</v>
       </c>
       <c r="D97">
-        <v>0.1181221242703288</v>
+        <v>0.1107124175065977</v>
       </c>
       <c r="E97">
         <v>-1</v>
@@ -4825,19 +4828,19 @@
         <v>0.25</v>
       </c>
       <c r="H97">
-        <v>0.5820419788360596</v>
+        <v>0.5984160900115967</v>
       </c>
       <c r="I97">
-        <v>0.8117773532867432</v>
+        <v>0.7400363683700562</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L97">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -4848,16 +4851,16 @@
         <v>109</v>
       </c>
       <c r="B98">
-        <v>893.3440440506905</v>
+        <v>0.3006635134109796</v>
       </c>
       <c r="C98">
-        <v>0.02748750904771356</v>
+        <v>0.02487550193959098</v>
       </c>
       <c r="D98">
-        <v>0.09162503015904519</v>
+        <v>0.08291833979863661</v>
       </c>
       <c r="E98">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F98">
         <v>4</v>
@@ -4866,10 +4869,10 @@
         <v>0.15</v>
       </c>
       <c r="H98">
-        <v>0.6864330768585205</v>
+        <v>0.5872449278831482</v>
       </c>
       <c r="I98">
-        <v>0.8898661136627197</v>
+        <v>0.9413260221481323</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -4878,7 +4881,7 @@
         <v>10000</v>
       </c>
       <c r="L98">
-        <v>55000</v>
+        <v>345000</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -4889,37 +4892,37 @@
         <v>110</v>
       </c>
       <c r="B99">
-        <v>852.4254184107522</v>
+        <v>0.2984691461775417</v>
       </c>
       <c r="C99">
-        <v>0.1623667463639528</v>
+        <v>0.03657349803628492</v>
       </c>
       <c r="D99">
-        <v>0.5412224878798426</v>
+        <v>0.05224785433754989</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H99">
-        <v>0.6487201452255249</v>
+        <v>0.6297539472579956</v>
       </c>
       <c r="I99">
-        <v>0.8342927098274231</v>
+        <v>0.8296550512313843</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="L99">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -4930,37 +4933,37 @@
         <v>111</v>
       </c>
       <c r="B100">
-        <v>829.4862640597704</v>
+        <v>0.2950068188621613</v>
       </c>
       <c r="C100">
-        <v>0.03770392109362593</v>
+        <v>0.03345717359696643</v>
       </c>
       <c r="D100">
-        <v>0.05386274441946562</v>
+        <v>0.1115239119898881</v>
       </c>
       <c r="E100">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H100">
-        <v>0.6623817086219788</v>
+        <v>0.5335193872451782</v>
       </c>
       <c r="I100">
-        <v>0.8131677508354187</v>
+        <v>0.8361376523971558</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L100">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -4971,16 +4974,16 @@
         <v>112</v>
       </c>
       <c r="B101">
-        <v>797.8059240258066</v>
+        <v>0.2855684499397881</v>
       </c>
       <c r="C101">
-        <v>0.02127482464068817</v>
+        <v>0.02748750904771356</v>
       </c>
       <c r="D101">
-        <v>0.07091608213562725</v>
+        <v>0.09162503015904519</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F101">
         <v>4</v>
@@ -4989,19 +4992,19 @@
         <v>0.15</v>
       </c>
       <c r="H101">
-        <v>0.5421674847602844</v>
+        <v>0.6864330768585205</v>
       </c>
       <c r="I101">
-        <v>0.8720070719718933</v>
+        <v>0.8898661136627197</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L101">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -5012,37 +5015,37 @@
         <v>113</v>
       </c>
       <c r="B102">
-        <v>768.7284238513926</v>
+        <v>0.2835901259647867</v>
       </c>
       <c r="C102">
-        <v>0.1537456847702785</v>
+        <v>0.03329541330983829</v>
       </c>
       <c r="D102">
-        <v>0.5124856159009283</v>
+        <v>0.04756487615691185</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H102">
-        <v>0.6060317754745483</v>
+        <v>0.6015510559082031</v>
       </c>
       <c r="I102">
-        <v>0.8456414937973022</v>
+        <v>0.7907038927078247</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L102">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -5053,37 +5056,37 @@
         <v>114</v>
       </c>
       <c r="B103">
-        <v>766.0903216009107</v>
+        <v>0.2661958524527279</v>
       </c>
       <c r="C103">
-        <v>0.04380036714793235</v>
+        <v>0.02768296504484873</v>
       </c>
       <c r="D103">
-        <v>0.06257195306847478</v>
+        <v>0.09227655014949576</v>
       </c>
       <c r="E103">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H103">
-        <v>0.5558797121047974</v>
+        <v>0.4528509378433228</v>
       </c>
       <c r="I103">
-        <v>0.7504255771636963</v>
+        <v>0.8150721788406372</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>5830</v>
+        <v>5000</v>
       </c>
       <c r="L103">
-        <v>29151</v>
+        <v>25000</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -5094,37 +5097,37 @@
         <v>115</v>
       </c>
       <c r="B104">
-        <v>742.9195401336175</v>
+        <v>0.263128312222775</v>
       </c>
       <c r="C104">
-        <v>0.01456704980654152</v>
+        <v>0.02226049222290757</v>
       </c>
       <c r="D104">
-        <v>0.04855683268847173</v>
+        <v>0.07420164074302525</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G104">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H104">
-        <v>0.5697376728057861</v>
+        <v>0.5627223253250122</v>
       </c>
       <c r="I104">
-        <v>0.8522664904594421</v>
+        <v>0.8790794014930725</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="L104">
-        <v>70000</v>
+        <v>262000</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -5135,37 +5138,37 @@
         <v>116</v>
       </c>
       <c r="B105">
-        <v>713.4421363424195</v>
+        <v>0.2619779758631178</v>
       </c>
       <c r="C105">
-        <v>0.01783605340856049</v>
+        <v>0.02345276991321814</v>
       </c>
       <c r="D105">
-        <v>0.0594535113618683</v>
+        <v>0.07817589971072714</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G105">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H105">
-        <v>0.7022932767868042</v>
+        <v>0.6010788679122925</v>
       </c>
       <c r="I105">
-        <v>0.8465624451637268</v>
+        <v>0.8670620322227478</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L105">
-        <v>60000</v>
+        <v>125000</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -5176,37 +5179,37 @@
         <v>117</v>
       </c>
       <c r="B106">
-        <v>709.1344064030504</v>
+        <v>0.2616593270488831</v>
       </c>
       <c r="C106">
-        <v>0.01418268812806101</v>
+        <v>0.02678188032952367</v>
       </c>
       <c r="D106">
-        <v>0.0472756270935367</v>
+        <v>0.08927293443174555</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G106">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H106">
-        <v>0.583243191242218</v>
+        <v>0.6359817385673523</v>
       </c>
       <c r="I106">
-        <v>0.8105645775794983</v>
+        <v>0.9358018636703491</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="L106">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -5217,37 +5220,37 @@
         <v>118</v>
       </c>
       <c r="B107">
-        <v>649.6734163185636</v>
+        <v>0.2607258204901534</v>
       </c>
       <c r="C107">
-        <v>0.04331156108790424</v>
+        <v>0.01918178021424694</v>
       </c>
       <c r="D107">
-        <v>0.1443718702930141</v>
+        <v>0.06393926738082314</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H107">
-        <v>0.6538244485855103</v>
+        <v>0.7061423659324646</v>
       </c>
       <c r="I107">
-        <v>0.8832454681396484</v>
+        <v>0.9054727554321289</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="L107">
-        <v>25000</v>
+        <v>1500000</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -5258,37 +5261,37 @@
         <v>119</v>
       </c>
       <c r="B108">
-        <v>641.3466689022393</v>
+        <v>0.2573681631343466</v>
       </c>
       <c r="C108">
-        <v>0.04275644459348262</v>
+        <v>0.02062573756689023</v>
       </c>
       <c r="D108">
-        <v>0.1425214819782754</v>
+        <v>0.06875245855630077</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G108">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H108">
-        <v>0.6004976630210876</v>
+        <v>0.5490518808364868</v>
       </c>
       <c r="I108">
-        <v>0.9493557810783386</v>
+        <v>0.8348022103309631</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="L108">
-        <v>25000</v>
+        <v>500000</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -5299,37 +5302,37 @@
         <v>120</v>
       </c>
       <c r="B109">
-        <v>612.0318992103017</v>
+        <v>0.256482860989404</v>
       </c>
       <c r="C109">
-        <v>0.04080212661402011</v>
+        <v>0.0203371546126489</v>
       </c>
       <c r="D109">
-        <v>0.1360070887134004</v>
+        <v>0.06779051537549634</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G109">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H109">
-        <v>0.5836571455001831</v>
+        <v>0.5785406827926636</v>
       </c>
       <c r="I109">
-        <v>0.9321026206016541</v>
+        <v>0.7811667919158936</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="L109">
-        <v>25000</v>
+        <v>500000</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -5340,37 +5343,37 @@
         <v>121</v>
       </c>
       <c r="B110">
-        <v>604.0052652107995</v>
+        <v>0.2550636247420149</v>
       </c>
       <c r="C110">
-        <v>0.01610680707228799</v>
+        <v>0.01987258328067341</v>
       </c>
       <c r="D110">
-        <v>0.05368935690762662</v>
+        <v>0.06624194426891136</v>
       </c>
       <c r="E110">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
         <v>0.1</v>
       </c>
       <c r="H110">
-        <v>0.6045735478401184</v>
+        <v>0.7342482805252075</v>
       </c>
       <c r="I110">
-        <v>0.8880533576011658</v>
+        <v>0.902173638343811</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="L110">
-        <v>50000</v>
+        <v>750000</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -5381,28 +5384,28 @@
         <v>122</v>
       </c>
       <c r="B111">
-        <v>565.2168439690612</v>
+        <v>0.241222043205909</v>
       </c>
       <c r="C111">
-        <v>0.03768112293127075</v>
+        <v>0.02508582056627659</v>
       </c>
       <c r="D111">
-        <v>0.1256037431042358</v>
+        <v>0.08361940188758865</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G111">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H111">
-        <v>0.5480002164840698</v>
+        <v>0.6154131889343262</v>
       </c>
       <c r="I111">
-        <v>0.9168152809143066</v>
+        <v>0.9058347940444946</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -5422,28 +5425,28 @@
         <v>123</v>
       </c>
       <c r="B112">
-        <v>551.2807433162549</v>
+        <v>0.2411552366217919</v>
       </c>
       <c r="C112">
-        <v>0.02004657248422745</v>
+        <v>0.02507887303378936</v>
       </c>
       <c r="D112">
-        <v>0.06682190828075818</v>
+        <v>0.08359624344596454</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G112">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H112">
-        <v>0.7177467346191406</v>
+        <v>0.6525919437408447</v>
       </c>
       <c r="I112">
-        <v>0.9309956431388855</v>
+        <v>0.8539919853210449</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -5452,7 +5455,7 @@
         <v>5000</v>
       </c>
       <c r="L112">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -5463,37 +5466,37 @@
         <v>124</v>
       </c>
       <c r="B113">
-        <v>547.5709203184235</v>
+        <v>0.2330954059277127</v>
       </c>
       <c r="C113">
-        <v>0.03650472802122823</v>
+        <v>0.020246392124576</v>
       </c>
       <c r="D113">
-        <v>0.1216824267374275</v>
+        <v>0.06748797374858669</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H113">
-        <v>0.5751587152481079</v>
+        <v>0.7414063215255737</v>
       </c>
       <c r="I113">
-        <v>0.8462528586387634</v>
+        <v>0.9102697372436523</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="L113">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -5504,37 +5507,37 @@
         <v>125</v>
       </c>
       <c r="B114">
-        <v>537.2373038543876</v>
+        <v>0.2240690673293662</v>
       </c>
       <c r="C114">
-        <v>0.03581582025695917</v>
+        <v>0.02127482464068817</v>
       </c>
       <c r="D114">
-        <v>0.1193860675231972</v>
+        <v>0.07091608213562725</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G114">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H114">
-        <v>0.5439475178718567</v>
+        <v>0.5421674847602844</v>
       </c>
       <c r="I114">
-        <v>0.8779234290122986</v>
+        <v>0.8720070719718933</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="L114">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -5545,37 +5548,37 @@
         <v>126</v>
       </c>
       <c r="B115">
-        <v>469.2341588914181</v>
+        <v>0.2145567335757844</v>
       </c>
       <c r="C115">
-        <v>0.02085485150628525</v>
+        <v>0.0195014053364186</v>
       </c>
       <c r="D115">
-        <v>0.06951617168761751</v>
+        <v>0.06500468445472868</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G115">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H115">
-        <v>0.7602096199989319</v>
+        <v>0.5423303842544556</v>
       </c>
       <c r="I115">
-        <v>0.9144342541694641</v>
+        <v>0.7990785241127014</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L115">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -5586,13 +5589,13 @@
         <v>127</v>
       </c>
       <c r="B116">
-        <v>468.6829057666641</v>
+        <v>0.2137130823706841</v>
       </c>
       <c r="C116">
-        <v>0.02678188032952367</v>
+        <v>0.02395136986014314</v>
       </c>
       <c r="D116">
-        <v>0.08927293443174555</v>
+        <v>0.07983789953381049</v>
       </c>
       <c r="E116">
         <v>4</v>
@@ -5604,19 +5607,19 @@
         <v>0.15</v>
       </c>
       <c r="H116">
-        <v>0.6359817385673523</v>
+        <v>0.5770409107208252</v>
       </c>
       <c r="I116">
-        <v>0.9358018636703491</v>
+        <v>0.9223828911781311</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
+        <v>5000</v>
+      </c>
+      <c r="L116">
         <v>10000</v>
-      </c>
-      <c r="L116">
-        <v>25000</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -5627,34 +5630,34 @@
         <v>128</v>
       </c>
       <c r="B117">
-        <v>416.8322519123402</v>
+        <v>0.2109629296373975</v>
       </c>
       <c r="C117">
-        <v>0.0332137252519793</v>
+        <v>0.02193903230685407</v>
       </c>
       <c r="D117">
-        <v>0.1107124175065977</v>
+        <v>0.07313010768951358</v>
       </c>
       <c r="E117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H117">
-        <v>0.5984160900115967</v>
+        <v>0.796083927154541</v>
       </c>
       <c r="I117">
-        <v>0.7400363683700562</v>
+        <v>0.9186230897903442</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="L117">
         <v>25000</v>
@@ -5668,37 +5671,37 @@
         <v>129</v>
       </c>
       <c r="B118">
-        <v>415.2444756727309</v>
+        <v>0.20987978648142</v>
       </c>
       <c r="C118">
-        <v>0.02768296504484873</v>
+        <v>0.01922837708240635</v>
       </c>
       <c r="D118">
-        <v>0.09227655014949576</v>
+        <v>0.06409459027468785</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H118">
-        <v>0.4528509378433228</v>
+        <v>0.7145496606826782</v>
       </c>
       <c r="I118">
-        <v>0.8150721788406372</v>
+        <v>0.8969928026199341</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L118">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -5709,13 +5712,13 @@
         <v>130</v>
       </c>
       <c r="B119">
-        <v>408.4797259815311</v>
+        <v>0.2089930368827511</v>
       </c>
       <c r="C119">
-        <v>0.01485380821751022</v>
+        <v>0.02085485150628525</v>
       </c>
       <c r="D119">
-        <v>0.0495126940583674</v>
+        <v>0.06951617168761751</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5727,19 +5730,19 @@
         <v>0.1</v>
       </c>
       <c r="H119">
-        <v>0.5874849557876587</v>
+        <v>0.7602096199989319</v>
       </c>
       <c r="I119">
-        <v>0.8427908420562744</v>
+        <v>0.9144342541694641</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L119">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -5750,28 +5753,28 @@
         <v>131</v>
       </c>
       <c r="B120">
-        <v>376.2873084941489</v>
+        <v>0.2049156158253187</v>
       </c>
       <c r="C120">
-        <v>0.02508582056627659</v>
+        <v>0.02004657248422745</v>
       </c>
       <c r="D120">
-        <v>0.08361940188758865</v>
+        <v>0.06682190828075818</v>
       </c>
       <c r="E120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H120">
-        <v>0.6154131889343262</v>
+        <v>0.7177467346191406</v>
       </c>
       <c r="I120">
-        <v>0.9058347940444946</v>
+        <v>0.9309956431388855</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -5780,7 +5783,7 @@
         <v>5000</v>
       </c>
       <c r="L120">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -5791,13 +5794,13 @@
         <v>132</v>
       </c>
       <c r="B121">
-        <v>376.1830955068404</v>
+        <v>0.2007105937464603</v>
       </c>
       <c r="C121">
-        <v>0.02507887303378936</v>
+        <v>0.02087284343320412</v>
       </c>
       <c r="D121">
-        <v>0.08359624344596454</v>
+        <v>0.06957614477734708</v>
       </c>
       <c r="E121">
         <v>-1</v>
@@ -5809,10 +5812,10 @@
         <v>0.15</v>
       </c>
       <c r="H121">
-        <v>0.6525919437408447</v>
+        <v>0.5865185260772705</v>
       </c>
       <c r="I121">
-        <v>0.8539919853210449</v>
+        <v>0.7908377051353455</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -5832,37 +5835,37 @@
         <v>133</v>
       </c>
       <c r="B122">
-        <v>353.3493939389951</v>
+        <v>0.1999648374805681</v>
       </c>
       <c r="C122">
-        <v>0.03926104377099946</v>
+        <v>0.02241056901333378</v>
       </c>
       <c r="D122">
-        <v>0.05608720538714209</v>
+        <v>0.0747018967111126</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G122">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H122">
-        <v>0.6890575289726257</v>
+        <v>0.5554446578025818</v>
       </c>
       <c r="I122">
-        <v>0.8139698505401611</v>
+        <v>0.8966017365455627</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L122">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -5873,13 +5876,13 @@
         <v>134</v>
       </c>
       <c r="B123">
-        <v>329.0854846028111</v>
+        <v>0.1992471963919992</v>
       </c>
       <c r="C123">
-        <v>0.02193903230685407</v>
+        <v>0.0207206578246118</v>
       </c>
       <c r="D123">
-        <v>0.07313010768951358</v>
+        <v>0.06906885941537268</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5891,19 +5894,19 @@
         <v>0.1</v>
       </c>
       <c r="H123">
-        <v>0.796083927154541</v>
+        <v>0.7403559684753418</v>
       </c>
       <c r="I123">
-        <v>0.9186230897903442</v>
+        <v>0.9329141974449158</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L123">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -5914,13 +5917,13 @@
         <v>135</v>
       </c>
       <c r="B124">
-        <v>316.569229354624</v>
+        <v>0.1962830602361737</v>
       </c>
       <c r="C124">
-        <v>0.01406974352687218</v>
+        <v>0.01777453275191522</v>
       </c>
       <c r="D124">
-        <v>0.04689914508957393</v>
+        <v>0.05924844250638409</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5932,19 +5935,19 @@
         <v>0.1</v>
       </c>
       <c r="H124">
-        <v>0.5874857306480408</v>
+        <v>0.6708694100379944</v>
       </c>
       <c r="I124">
-        <v>0.7983027100563049</v>
+        <v>0.8831591010093689</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L124">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -5955,37 +5958,37 @@
         <v>136</v>
       </c>
       <c r="B125">
-        <v>313.0926514980619</v>
+        <v>0.1945102585252748</v>
       </c>
       <c r="C125">
-        <v>0.02087284343320412</v>
+        <v>0.01757624831768517</v>
       </c>
       <c r="D125">
-        <v>0.06957614477734708</v>
+        <v>0.0585874943922839</v>
       </c>
       <c r="E125">
         <v>-1</v>
       </c>
       <c r="F125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G125">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H125">
-        <v>0.5865185260772705</v>
+        <v>0.6686378717422485</v>
       </c>
       <c r="I125">
-        <v>0.7908377051353455</v>
+        <v>0.8762215971946716</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>5000</v>
+        <v>64000</v>
       </c>
       <c r="L125">
-        <v>25000</v>
+        <v>64000</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -5996,37 +5999,37 @@
         <v>137</v>
       </c>
       <c r="B126">
-        <v>310.809867369177</v>
+        <v>0.1902047660070048</v>
       </c>
       <c r="C126">
-        <v>0.0207206578246118</v>
+        <v>0.01978029274393222</v>
       </c>
       <c r="D126">
-        <v>0.06906885941537268</v>
+        <v>0.06593430914644073</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G126">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H126">
-        <v>0.7403559684753418</v>
+        <v>0.5570379495620728</v>
       </c>
       <c r="I126">
-        <v>0.9329141974449158</v>
+        <v>0.7891061305999756</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L126">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -6037,37 +6040,37 @@
         <v>138</v>
       </c>
       <c r="B127">
-        <v>296.7043911589833</v>
+        <v>0.1890025889462702</v>
       </c>
       <c r="C127">
-        <v>0.01978029274393222</v>
+        <v>0.01783605340856049</v>
       </c>
       <c r="D127">
-        <v>0.06593430914644073</v>
+        <v>0.0594535113618683</v>
       </c>
       <c r="E127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H127">
-        <v>0.5570379495620728</v>
+        <v>0.7022932767868042</v>
       </c>
       <c r="I127">
-        <v>0.7891061305999756</v>
+        <v>0.8465624451637268</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L127">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -6078,7 +6081,7 @@
         <v>139</v>
       </c>
       <c r="B128">
-        <v>289.6174832300744</v>
+        <v>0.185661645970709</v>
       </c>
       <c r="C128">
         <v>0.01930783221533829</v>
@@ -6119,37 +6122,37 @@
         <v>140</v>
       </c>
       <c r="B129">
-        <v>288.7609790678954</v>
+        <v>0.1827894926189295</v>
       </c>
       <c r="C129">
-        <v>0.03850146387571939</v>
+        <v>0.01900914341118092</v>
       </c>
       <c r="D129">
-        <v>0.05500209125102771</v>
+        <v>0.06336381137060307</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G129">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H129">
-        <v>0.6443421840667725</v>
+        <v>0.5664690732955933</v>
       </c>
       <c r="I129">
-        <v>0.8536161780357361</v>
+        <v>0.7457166314125061</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129">
         <v>5000</v>
       </c>
       <c r="L129">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -6160,28 +6163,28 @@
         <v>141</v>
       </c>
       <c r="B130">
-        <v>285.1371511677138</v>
+        <v>0.178869026385298</v>
       </c>
       <c r="C130">
-        <v>0.01900914341118092</v>
+        <v>0.0158881056715181</v>
       </c>
       <c r="D130">
-        <v>0.06336381137060307</v>
+        <v>0.05296035223839368</v>
       </c>
       <c r="E130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H130">
-        <v>0.5664690732955933</v>
+        <v>0.6566673517227173</v>
       </c>
       <c r="I130">
-        <v>0.7457166314125061</v>
+        <v>0.8065019845962524</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -6190,7 +6193,7 @@
         <v>5000</v>
       </c>
       <c r="L130">
-        <v>25000</v>
+        <v>150000</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -6201,37 +6204,37 @@
         <v>142</v>
       </c>
       <c r="B131">
-        <v>274.6482117575799</v>
+        <v>0.1780762294495754</v>
       </c>
       <c r="C131">
-        <v>0.04225357103962768</v>
+        <v>0.0156489923341114</v>
       </c>
       <c r="D131">
-        <v>0.1408452367987589</v>
+        <v>0.05216330778037134</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G131">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H131">
-        <v>0.6101742386817932</v>
+        <v>0.6397249698638916</v>
       </c>
       <c r="I131">
-        <v>0.9233115911483765</v>
+        <v>0.815402090549469</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="L131">
-        <v>12000</v>
+        <v>125000</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -6242,37 +6245,37 @@
         <v>143</v>
       </c>
       <c r="B132">
-        <v>272.5884122130893</v>
+        <v>0.1776532413573431</v>
       </c>
       <c r="C132">
-        <v>0.04361414595409428</v>
+        <v>0.0142704568050279</v>
       </c>
       <c r="D132">
-        <v>0.06230592279156327</v>
+        <v>0.04756818935009299</v>
       </c>
       <c r="E132">
         <v>-1</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G132">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H132">
-        <v>0.5700345039367676</v>
+        <v>0.6031015515327454</v>
       </c>
       <c r="I132">
-        <v>0.7286801338195801</v>
+        <v>0.7887260317802429</v>
       </c>
       <c r="J132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="L132">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -6283,13 +6286,13 @@
         <v>144</v>
       </c>
       <c r="B133">
-        <v>263.0813068443416</v>
+        <v>0.1724883547698367</v>
       </c>
       <c r="C133">
-        <v>0.01753875378962277</v>
+        <v>0.01820883905534032</v>
       </c>
       <c r="D133">
-        <v>0.05846251263207591</v>
+        <v>0.06069613018446773</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6301,19 +6304,19 @@
         <v>0.1</v>
       </c>
       <c r="H133">
-        <v>0.6871938705444336</v>
+        <v>0.6747877597808838</v>
       </c>
       <c r="I133">
-        <v>0.8507426381111145</v>
+        <v>0.8994847536087036</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L133">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -6324,37 +6327,37 @@
         <v>145</v>
       </c>
       <c r="B134">
-        <v>258.3339967294323</v>
+        <v>0.1704552361084082</v>
       </c>
       <c r="C134">
-        <v>0.04696981758716951</v>
+        <v>0.01806901798220622</v>
       </c>
       <c r="D134">
-        <v>0.1565660586238984</v>
+        <v>0.06023005994068739</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H134">
-        <v>0.4215347170829773</v>
+        <v>0.663983941078186</v>
       </c>
       <c r="I134">
-        <v>0.7428382635116577</v>
+        <v>0.9071011543273926</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L134">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -6365,37 +6368,37 @@
         <v>146</v>
       </c>
       <c r="B135">
-        <v>256.8493246131544</v>
+        <v>0.1703804953154673</v>
       </c>
       <c r="C135">
-        <v>0.01712328830754363</v>
+        <v>0.01340855384246236</v>
       </c>
       <c r="D135">
-        <v>0.05707762769181209</v>
+        <v>0.04469517947487454</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
         <v>0.1</v>
       </c>
       <c r="H135">
-        <v>0.6214634776115417</v>
+        <v>0.5510463118553162</v>
       </c>
       <c r="I135">
-        <v>0.9184389710426331</v>
+        <v>0.8110966086387634</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>5000</v>
+        <v>160000</v>
       </c>
       <c r="L135">
-        <v>25000</v>
+        <v>500000</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -6406,37 +6409,37 @@
         <v>147</v>
       </c>
       <c r="B136">
-        <v>240.8956318899362</v>
+        <v>0.1696388712619192</v>
       </c>
       <c r="C136">
-        <v>0.01605970879266241</v>
+        <v>0.01610680707228799</v>
       </c>
       <c r="D136">
-        <v>0.05353236264220805</v>
+        <v>0.05368935690762662</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>0.1</v>
       </c>
       <c r="H136">
-        <v>0.6330870985984802</v>
+        <v>0.6045735478401184</v>
       </c>
       <c r="I136">
-        <v>0.8455765843391418</v>
+        <v>0.8880533576011658</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="L136">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -6447,13 +6450,13 @@
         <v>148</v>
       </c>
       <c r="B137">
-        <v>236.7149077194242</v>
+        <v>0.1688379513285889</v>
       </c>
       <c r="C137">
-        <v>0.01820883905534032</v>
+        <v>0.01931674555181786</v>
       </c>
       <c r="D137">
-        <v>0.06069613018446773</v>
+        <v>0.06438915183939287</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6465,19 +6468,19 @@
         <v>0.1</v>
       </c>
       <c r="H137">
-        <v>0.6747877597808838</v>
+        <v>0.696444034576416</v>
       </c>
       <c r="I137">
-        <v>0.8994847536087036</v>
+        <v>0.9245416522026062</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L137">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -6488,37 +6491,37 @@
         <v>149</v>
       </c>
       <c r="B138">
-        <v>230.2581200670204</v>
+        <v>0.1686504140153841</v>
       </c>
       <c r="C138">
-        <v>0.04186511273945825</v>
+        <v>0.01753875378962277</v>
       </c>
       <c r="D138">
-        <v>0.1395503757981942</v>
+        <v>0.05846251263207591</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H138">
-        <v>0.628278374671936</v>
+        <v>0.6871938705444336</v>
       </c>
       <c r="I138">
-        <v>0.8884620666503906</v>
+        <v>0.8507426381111145</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L138">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -6529,13 +6532,13 @@
         <v>150</v>
       </c>
       <c r="B139">
-        <v>225.8627247775777</v>
+        <v>0.1674292563165537</v>
       </c>
       <c r="C139">
-        <v>0.01806901798220622</v>
+        <v>0.01421868597626954</v>
       </c>
       <c r="D139">
-        <v>0.06023005994068739</v>
+        <v>0.04739561992089847</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6547,19 +6550,19 @@
         <v>0.1</v>
       </c>
       <c r="H139">
-        <v>0.663983941078186</v>
+        <v>0.5656397342681885</v>
       </c>
       <c r="I139">
-        <v>0.9071011543273926</v>
+        <v>0.8379117846488953</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L139">
-        <v>20000</v>
+        <v>250000</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -6570,37 +6573,37 @@
         <v>151</v>
       </c>
       <c r="B140">
-        <v>225.8359217795234</v>
+        <v>0.1650424238462637</v>
       </c>
       <c r="C140">
-        <v>0.03345717359696643</v>
+        <v>0.01489262514020172</v>
       </c>
       <c r="D140">
-        <v>0.1115239119898881</v>
+        <v>0.04964208380067241</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H140">
-        <v>0.5335193872451782</v>
+        <v>0.6313634514808655</v>
       </c>
       <c r="I140">
-        <v>0.8361376523971558</v>
+        <v>0.7862679362297058</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="L140">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -6611,28 +6614,28 @@
         <v>152</v>
       </c>
       <c r="B141">
-        <v>179.6352739510736</v>
+        <v>0.164655351059246</v>
       </c>
       <c r="C141">
-        <v>0.02395136986014314</v>
+        <v>0.01712328830754363</v>
       </c>
       <c r="D141">
-        <v>0.07983789953381049</v>
+        <v>0.05707762769181209</v>
       </c>
       <c r="E141">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H141">
-        <v>0.5770409107208252</v>
+        <v>0.6214634776115417</v>
       </c>
       <c r="I141">
-        <v>0.9223828911781311</v>
+        <v>0.9184389710426331</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -6641,7 +6644,7 @@
         <v>5000</v>
       </c>
       <c r="L141">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -6652,37 +6655,37 @@
         <v>153</v>
       </c>
       <c r="B142">
-        <v>177.9379877284159</v>
+        <v>0.1590699611985342</v>
       </c>
       <c r="C142">
-        <v>0.01423503901827328</v>
+        <v>0.01986710435036684</v>
       </c>
       <c r="D142">
-        <v>0.04745013006091092</v>
+        <v>0.06622368116788947</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G142">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H142">
-        <v>0.5502477288246155</v>
+        <v>0.5747244358062744</v>
       </c>
       <c r="I142">
-        <v>0.8623412251472473</v>
+        <v>0.7681789398193359</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
+        <v>1000</v>
+      </c>
+      <c r="L142">
         <v>5000</v>
-      </c>
-      <c r="L142">
-        <v>20000</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -6693,37 +6696,37 @@
         <v>154</v>
       </c>
       <c r="B143">
-        <v>168.0792676000034</v>
+        <v>0.1579010006484921</v>
       </c>
       <c r="C143">
-        <v>0.02241056901333378</v>
+        <v>0.01456704980654152</v>
       </c>
       <c r="D143">
-        <v>0.0747018967111126</v>
+        <v>0.04855683268847173</v>
       </c>
       <c r="E143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H143">
-        <v>0.5554446578025818</v>
+        <v>0.5697376728057861</v>
       </c>
       <c r="I143">
-        <v>0.8966017365455627</v>
+        <v>0.8522664904594421</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143">
-        <v>5000</v>
+        <v>32000</v>
       </c>
       <c r="L143">
-        <v>10000</v>
+        <v>70000</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -6734,13 +6737,13 @@
         <v>155</v>
       </c>
       <c r="B144">
-        <v>166.4770665491914</v>
+        <v>0.1544281064286082</v>
       </c>
       <c r="C144">
-        <v>0.03329541330983829</v>
+        <v>0.01605970879266241</v>
       </c>
       <c r="D144">
-        <v>0.04756487615691185</v>
+        <v>0.05353236264220805</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6752,19 +6755,19 @@
         <v>0.1</v>
       </c>
       <c r="H144">
-        <v>0.6015510559082031</v>
+        <v>0.6330870985984802</v>
       </c>
       <c r="I144">
-        <v>0.7907038927078247</v>
+        <v>0.8455765843391418</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144">
         <v>5000</v>
       </c>
       <c r="L144">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -6775,13 +6778,13 @@
         <v>156</v>
       </c>
       <c r="B145">
-        <v>128.0072431269972</v>
+        <v>0.1534538246734841</v>
       </c>
       <c r="C145">
-        <v>0.03657349803628492</v>
+        <v>0.01418268812806101</v>
       </c>
       <c r="D145">
-        <v>0.05224785433754989</v>
+        <v>0.0472756270935367</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6793,19 +6796,19 @@
         <v>0.1</v>
       </c>
       <c r="H145">
-        <v>0.6297539472579956</v>
+        <v>0.583243191242218</v>
       </c>
       <c r="I145">
-        <v>0.8296550512313843</v>
+        <v>0.8105645775794983</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="L145">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="M145">
         <v>0</v>
@@ -6816,37 +6819,37 @@
         <v>157</v>
       </c>
       <c r="B146">
-        <v>120.7296596988616</v>
+        <v>0.1524045607003385</v>
       </c>
       <c r="C146">
-        <v>0.01931674555181786</v>
+        <v>0.0178933339853031</v>
       </c>
       <c r="D146">
-        <v>0.06438915183939287</v>
+        <v>0.05964444661767701</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146">
         <v>0.1</v>
       </c>
       <c r="H146">
-        <v>0.696444034576416</v>
+        <v>0.6463042497634888</v>
       </c>
       <c r="I146">
-        <v>0.9245416522026062</v>
+        <v>0.9228540062904358</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L146">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -6857,16 +6860,16 @@
         <v>158</v>
       </c>
       <c r="B147">
-        <v>112.9104150608556</v>
+        <v>0.1518352955667168</v>
       </c>
       <c r="C147">
-        <v>0.01505472200811408</v>
+        <v>0.01485380821751022</v>
       </c>
       <c r="D147">
-        <v>0.05018240669371359</v>
+        <v>0.0495126940583674</v>
       </c>
       <c r="E147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -6875,10 +6878,10 @@
         <v>0.1</v>
       </c>
       <c r="H147">
-        <v>0.6338775753974915</v>
+        <v>0.5874849557876587</v>
       </c>
       <c r="I147">
-        <v>0.791673481464386</v>
+        <v>0.8427908420562744</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -6887,7 +6890,7 @@
         <v>5000</v>
       </c>
       <c r="L147">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -6898,13 +6901,13 @@
         <v>159</v>
       </c>
       <c r="B148">
-        <v>103.4140655270174</v>
+        <v>0.1409973322972951</v>
       </c>
       <c r="C148">
-        <v>0.01532060230029888</v>
+        <v>0.01406974352687218</v>
       </c>
       <c r="D148">
-        <v>0.0510686743343296</v>
+        <v>0.04689914508957393</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6916,19 +6919,19 @@
         <v>0.1</v>
       </c>
       <c r="H148">
-        <v>0.6720414757728577</v>
+        <v>0.5874857306480408</v>
       </c>
       <c r="I148">
-        <v>0.759903609752655</v>
+        <v>0.7983027100563049</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="L148">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -6939,37 +6942,37 @@
         <v>160</v>
       </c>
       <c r="B149">
-        <v>89.46666992651552</v>
+        <v>0.135088582260675</v>
       </c>
       <c r="C149">
-        <v>0.0178933339853031</v>
+        <v>0.01532060230029888</v>
       </c>
       <c r="D149">
-        <v>0.05964444661767701</v>
+        <v>0.0510686743343296</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149">
         <v>0.1</v>
       </c>
       <c r="H149">
-        <v>0.6463042497634888</v>
+        <v>0.6720414757728577</v>
       </c>
       <c r="I149">
-        <v>0.9228540062904358</v>
+        <v>0.759903609752655</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L149">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -6980,37 +6983,37 @@
         <v>161</v>
       </c>
       <c r="B150">
-        <v>89.29755988954227</v>
+        <v>0.1343301474351916</v>
       </c>
       <c r="C150">
-        <v>0.1480888223707169</v>
+        <v>0.01505472200811408</v>
       </c>
       <c r="D150">
-        <v>0.2115554605295955</v>
+        <v>0.05018240669371359</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F150">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G150">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H150">
-        <v>0.5919263362884521</v>
+        <v>0.6338775753974915</v>
       </c>
       <c r="I150">
-        <v>0.7148033380508423</v>
+        <v>0.791673481464386</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150">
-        <v>180</v>
+        <v>5000</v>
       </c>
       <c r="L150">
-        <v>1026</v>
+        <v>10000</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -7021,39 +7024,80 @@
         <v>162</v>
       </c>
       <c r="B151">
-        <v>59.60131305110052</v>
+        <v>0.1342871504838642</v>
       </c>
       <c r="C151">
-        <v>0.01986710435036684</v>
+        <v>0.01423503901827328</v>
       </c>
       <c r="D151">
-        <v>0.06622368116788947</v>
+        <v>0.04745013006091092</v>
       </c>
       <c r="E151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H151">
-        <v>0.5747244358062744</v>
+        <v>0.5502477288246155</v>
       </c>
       <c r="I151">
-        <v>0.7681789398193359</v>
+        <v>0.8623412251472473</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L151">
+        <v>20000</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152">
+        <v>0.09432776098402061</v>
+      </c>
+      <c r="C152">
+        <v>0.01155863587676862</v>
+      </c>
+      <c r="D152">
+        <v>0.0385287862558954</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>0.1</v>
+      </c>
+      <c r="H152">
+        <v>0.5382800102233887</v>
+      </c>
+      <c r="I152">
+        <v>0.7157759070396423</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>2000</v>
+      </c>
+      <c r="L152">
         <v>5000</v>
       </c>
-      <c r="M151">
+      <c r="M152">
         <v>0</v>
       </c>
     </row>
